--- a/estimation/notsensor/DenseModel/Dense_1st_torch/IWALQQ_1st_correction/angle/3_fold/67.xlsx
+++ b/estimation/notsensor/DenseModel/Dense_1st_torch/IWALQQ_1st_correction/angle/3_fold/67.xlsx
@@ -1,37 +1,63 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+  <si>
+    <t>X_True</t>
+  </si>
+  <si>
+    <t>Y_True</t>
+  </si>
+  <si>
+    <t>Z_True</t>
+  </si>
+  <si>
+    <t>X_Pred</t>
+  </si>
+  <si>
+    <t>Y_Pred</t>
+  </si>
+  <si>
+    <t>Z_Pred</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +72,35 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -420,5809 +388,5185 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G304"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>X_True</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Y_True</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Z_True</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>X_Pred</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Y_Pred</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>Z_Pred</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
+    <row r="1" spans="1:7">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>-12.37232862401466</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>6.51928711967503</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>-1.020378372887736</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>-11.64296687344653</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>-7.288383140708703</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>-10.56273368572424</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
+    <row r="3" spans="1:7">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>-12.50139819209097</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>6.474148682727077</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>-1.114734812193108</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>-12.1871083102082</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>-7.226722342744026</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>-10.50849701815436</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="4" spans="1:7">
+      <c r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="n">
+      <c r="B4">
         <v>-12.67707019107755</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>6.412712361462809</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>-1.243160006118218</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>-12.78124410001455</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>-7.150791958554761</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>-10.4486224915311</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
+    <row r="5" spans="1:7">
+      <c r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>-12.89949516231349</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>6.334925508299659</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>-1.405764008062449</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>-13.44414476762737</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>-7.022231463457133</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>-10.52632761642887</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
+    <row r="6" spans="1:7">
+      <c r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>-13.14053114436149</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>6.250629979616797</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>-1.581973608431419</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>-14.04438494039607</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>-6.921520436882507</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>-10.52836360193553</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
+    <row r="7" spans="1:7">
+      <c r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>-13.38584205241086</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>6.164839416274362</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>-1.761308397811207</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>-14.72167709840527</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>-6.812060226978036</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>-10.53250178385962</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
+    <row r="8" spans="1:7">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>-13.61911308123916</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>6.083259460724153</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8">
         <v>-1.931841421213944</v>
       </c>
-      <c r="E8" t="n">
+      <c r="E8">
         <v>-15.37907567009877</v>
       </c>
-      <c r="F8" t="n">
+      <c r="F8">
         <v>-6.703682480066769</v>
       </c>
-      <c r="G8" t="n">
+      <c r="G8">
         <v>-10.4879650147198</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
+    <row r="9" spans="1:7">
+      <c r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>-13.83055000492309</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>6.00931536692713</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D9">
         <v>-2.086412599794948</v>
       </c>
-      <c r="E9" t="n">
+      <c r="E9">
         <v>-15.959558110772</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9">
         <v>-6.580954773855704</v>
       </c>
-      <c r="G9" t="n">
+      <c r="G9">
         <v>-10.46182825768725</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
+    <row r="10" spans="1:7">
+      <c r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>-14.01599712232043</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>5.944460474014882</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>-2.221983903998215</v>
       </c>
-      <c r="E10" t="n">
+      <c r="E10">
         <v>-16.61509547964835</v>
       </c>
-      <c r="F10" t="n">
+      <c r="F10">
         <v>-6.479032608182247</v>
       </c>
-      <c r="G10" t="n">
+      <c r="G10">
         <v>-10.31660455651605</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
+    <row r="11" spans="1:7">
+      <c r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>-14.1789102949701</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>5.887486191995976</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>-2.3410817449244</v>
       </c>
-      <c r="E11" t="n">
+      <c r="E11">
         <v>-17.28658666245373</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11">
         <v>-6.383096059016192</v>
       </c>
-      <c r="G11" t="n">
+      <c r="G11">
         <v>-10.0848862320403</v>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
+    <row r="12" spans="1:7">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="B12" t="n">
+      <c r="B12">
         <v>-14.32040870889796</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>5.838001117159887</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D12">
         <v>-2.444524304658513</v>
       </c>
-      <c r="E12" t="n">
+      <c r="E12">
         <v>-17.95730347620379</v>
       </c>
-      <c r="F12" t="n">
+      <c r="F12">
         <v>-6.247946951383858</v>
       </c>
-      <c r="G12" t="n">
+      <c r="G12">
         <v>-9.737464340967023</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
+    <row r="13" spans="1:7">
+      <c r="A13" s="1">
         <v>11</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13">
         <v>-14.44611237176797</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>5.794039810516096</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13">
         <v>-2.536420095531881</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13">
         <v>-18.59890673055854</v>
       </c>
-      <c r="F13" t="n">
+      <c r="F13">
         <v>-6.147082305335434</v>
       </c>
-      <c r="G13" t="n">
+      <c r="G13">
         <v>-9.302690395294537</v>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
+    <row r="14" spans="1:7">
+      <c r="A14" s="1">
         <v>12</v>
       </c>
-      <c r="B14" t="n">
+      <c r="B14">
         <v>-14.56762537976106</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>5.751544067085626</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D14">
         <v>-2.625252303885865</v>
       </c>
-      <c r="E14" t="n">
+      <c r="E14">
         <v>-19.43284333296707</v>
       </c>
-      <c r="F14" t="n">
+      <c r="F14">
         <v>-5.992940208585713</v>
       </c>
-      <c r="G14" t="n">
+      <c r="G14">
         <v>-8.797567356912539</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
+    <row r="15" spans="1:7">
+      <c r="A15" s="1">
         <v>13</v>
       </c>
-      <c r="B15" t="n">
+      <c r="B15">
         <v>-14.68677595078157</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>5.709874519279117</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15">
         <v>-2.712357450282953</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15">
         <v>-20.19676972721701</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15">
         <v>-5.821186510203347</v>
       </c>
-      <c r="G15" t="n">
+      <c r="G15">
         <v>-8.328357116540555</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
+    <row r="16" spans="1:7">
+      <c r="A16" s="1">
         <v>14</v>
       </c>
-      <c r="B16" t="n">
+      <c r="B16">
         <v>-14.80863135134953</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>5.667259033713592</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16">
         <v>-2.801439965077802</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16">
         <v>-21.05732469984263</v>
       </c>
-      <c r="F16" t="n">
+      <c r="F16">
         <v>-5.627863529105654</v>
       </c>
-      <c r="G16" t="n">
+      <c r="G16">
         <v>-7.836790762141874</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
+    <row r="17" spans="1:7">
+      <c r="A17" s="1">
         <v>15</v>
       </c>
-      <c r="B17" t="n">
+      <c r="B17">
         <v>-14.94279032913275</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>5.620340719428312</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17">
         <v>-2.899517022537145</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17">
         <v>-21.89068618605218</v>
       </c>
-      <c r="F17" t="n">
+      <c r="F17">
         <v>-5.430643839603022</v>
       </c>
-      <c r="G17" t="n">
+      <c r="G17">
         <v>-7.370583186574009</v>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
+    <row r="18" spans="1:7">
+      <c r="A18" s="1">
         <v>16</v>
       </c>
-      <c r="B18" t="n">
+      <c r="B18">
         <v>-15.08587137678498</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>5.570302163135334</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18">
         <v>-3.004116568268664</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18">
         <v>-22.72448693424047</v>
       </c>
-      <c r="F18" t="n">
+      <c r="F18">
         <v>-5.178212202623381</v>
       </c>
-      <c r="G18" t="n">
+      <c r="G18">
         <v>-6.977455903785555</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
+    <row r="19" spans="1:7">
+      <c r="A19" s="1">
         <v>17</v>
       </c>
-      <c r="B19" t="n">
+      <c r="B19">
         <v>-15.23823263171426</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>5.517018116388774</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19">
         <v>-3.115500418989583</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19">
         <v>-23.52968584059633</v>
       </c>
-      <c r="F19" t="n">
+      <c r="F19">
         <v>-4.929896617317969</v>
       </c>
-      <c r="G19" t="n">
+      <c r="G19">
         <v>-6.698774180289706</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
+    <row r="20" spans="1:7">
+      <c r="A20" s="1">
         <v>18</v>
       </c>
-      <c r="B20" t="n">
+      <c r="B20">
         <v>-15.40515248462559</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>5.458642611083415</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20">
         <v>-3.237527347605136</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20">
         <v>-24.28544739621044</v>
       </c>
-      <c r="F20" t="n">
+      <c r="F20">
         <v>-4.6900530668072</v>
       </c>
-      <c r="G20" t="n">
+      <c r="G20">
         <v>-6.490256158953171</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
+    <row r="21" spans="1:7">
+      <c r="A21" s="1">
         <v>19</v>
       </c>
-      <c r="B21" t="n">
+      <c r="B21">
         <v>-15.57720712329798</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>5.398471359447051</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21">
         <v>-3.363308066585311</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21">
         <v>-24.98254709952919</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F21">
         <v>-4.475014310197</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G21">
         <v>-6.326142484934881</v>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
+    <row r="22" spans="1:7">
+      <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22" t="n">
+      <c r="B22">
         <v>-15.75023986400236</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>5.337958044243284</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22">
         <v>-3.489803828052966</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22">
         <v>-25.59091135466764</v>
       </c>
-      <c r="F22" t="n">
+      <c r="F22">
         <v>-4.268194987287933</v>
       </c>
-      <c r="G22" t="n">
+      <c r="G22">
         <v>-6.289018027257494</v>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
+    <row r="23" spans="1:7">
+      <c r="A23" s="1">
         <v>21</v>
       </c>
-      <c r="B23" t="n">
+      <c r="B23">
         <v>-15.92540726724834</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>5.276698191091219</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23">
         <v>-3.617860136747565</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23">
         <v>-26.07440746751859</v>
       </c>
-      <c r="F23" t="n">
+      <c r="F23">
         <v>-4.095667648565875</v>
       </c>
-      <c r="G23" t="n">
+      <c r="G23">
         <v>-6.289008095620876</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
+    <row r="24" spans="1:7">
+      <c r="A24" s="1">
         <v>22</v>
       </c>
-      <c r="B24" t="n">
+      <c r="B24">
         <v>-16.08870644265659</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>5.219588915506908</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24">
         <v>-3.737240165383873</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24">
         <v>-26.50808130933715</v>
       </c>
-      <c r="F24" t="n">
+      <c r="F24">
         <v>-3.964284197673976</v>
       </c>
-      <c r="G24" t="n">
+      <c r="G24">
         <v>-6.368110270736222</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
+    <row r="25" spans="1:7">
+      <c r="A25" s="1">
         <v>23</v>
       </c>
-      <c r="B25" t="n">
+      <c r="B25">
         <v>-16.23417473862342</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>5.16871548652369</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25">
         <v>-3.843584911429155</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25">
         <v>-26.72092864464567</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25">
         <v>-3.863487650979916</v>
       </c>
-      <c r="G25" t="n">
+      <c r="G25">
         <v>-6.498906614447287</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
+    <row r="26" spans="1:7">
+      <c r="A26" s="1">
         <v>24</v>
       </c>
-      <c r="B26" t="n">
+      <c r="B26">
         <v>-16.36336920925686</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>5.123533368433209</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26">
         <v>-3.938032660876223</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26">
         <v>-26.88953278889926</v>
       </c>
-      <c r="F26" t="n">
+      <c r="F26">
         <v>-3.811444699039703</v>
       </c>
-      <c r="G26" t="n">
+      <c r="G26">
         <v>-6.61381565011539</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
+    <row r="27" spans="1:7">
+      <c r="A27" s="1">
         <v>25</v>
       </c>
-      <c r="B27" t="n">
+      <c r="B27">
         <v>-16.46499311884362</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>5.08799327556969</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27">
         <v>-4.012324923566901</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27">
         <v>-26.97926902983525</v>
       </c>
-      <c r="F27" t="n">
+      <c r="F27">
         <v>-3.776075002977236</v>
       </c>
-      <c r="G27" t="n">
+      <c r="G27">
         <v>-6.734928648124087</v>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
+    <row r="28" spans="1:7">
+      <c r="A28" s="1">
         <v>26</v>
       </c>
-      <c r="B28" t="n">
+      <c r="B28">
         <v>-16.53752512448295</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>5.062627254655111</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28">
         <v>-4.065349520222851</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28">
         <v>-26.93911052233523</v>
       </c>
-      <c r="F28" t="n">
+      <c r="F28">
         <v>-3.794407190801405</v>
       </c>
-      <c r="G28" t="n">
+      <c r="G28">
         <v>-6.824905965335939</v>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
+    <row r="29" spans="1:7">
+      <c r="A29" s="1">
         <v>27</v>
       </c>
-      <c r="B29" t="n">
+      <c r="B29">
         <v>-16.58756318086968</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>5.045127857338811</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29">
         <v>-4.101929892349162</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29">
         <v>-26.83705230362436</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29">
         <v>-3.765699353672235</v>
       </c>
-      <c r="G29" t="n">
+      <c r="G29">
         <v>-6.910758342805859</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
+    <row r="30" spans="1:7">
+      <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="n">
+      <c r="B30">
         <v>-16.60760626500461</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>5.038118354611319</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30">
         <v>-4.116582409436316</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30">
         <v>-26.67984632844809</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30">
         <v>-3.784866946366798</v>
       </c>
-      <c r="G30" t="n">
+      <c r="G30">
         <v>-6.9467241095445</v>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
+    <row r="31" spans="1:7">
+      <c r="A31" s="1">
         <v>29</v>
       </c>
-      <c r="B31" t="n">
+      <c r="B31">
         <v>-16.60016342733914</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>5.040721276924333</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31">
         <v>-4.111141315374339</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31">
         <v>-26.37768390028628</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31">
         <v>-3.826174747759205</v>
       </c>
-      <c r="G31" t="n">
+      <c r="G31">
         <v>-6.884118382851343</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
+    <row r="32" spans="1:7">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="B32" t="n">
+      <c r="B32">
         <v>-16.57508191431449</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>5.049492827887863</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32">
         <v>-4.092805449711586</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32">
         <v>-26.13240363413482</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32">
         <v>-3.845915641995158</v>
       </c>
-      <c r="G32" t="n">
+      <c r="G32">
         <v>-6.845898134600457</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
+    <row r="33" spans="1:7">
+      <c r="A33" s="1">
         <v>31</v>
       </c>
-      <c r="B33" t="n">
+      <c r="B33">
         <v>-16.52810296898722</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>5.065922387490036</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33">
         <v>-4.058461443843505</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33">
         <v>-25.80693767872955</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33">
         <v>-3.853546728948703</v>
       </c>
-      <c r="G33" t="n">
+      <c r="G33">
         <v>-6.818937051728633</v>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
+    <row r="34" spans="1:7">
+      <c r="A34" s="1">
         <v>32</v>
       </c>
-      <c r="B34" t="n">
+      <c r="B34">
         <v>-16.46409500720304</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>5.088307364756355</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34">
         <v>-4.011668358136596</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34">
         <v>-25.42746061383479</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34">
         <v>-3.857703956976732</v>
       </c>
-      <c r="G34" t="n">
+      <c r="G34">
         <v>-6.718001828781794</v>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
+    <row r="35" spans="1:7">
+      <c r="A35" s="1">
         <v>33</v>
       </c>
-      <c r="B35" t="n">
+      <c r="B35">
         <v>-16.39434781635467</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>5.112699475331517</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35">
         <v>-3.960679603172195</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35">
         <v>-25.0670937092524</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35">
         <v>-3.860488111976074</v>
       </c>
-      <c r="G35" t="n">
+      <c r="G35">
         <v>-6.578482197574749</v>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
+    <row r="36" spans="1:7">
+      <c r="A36" s="1">
         <v>34</v>
       </c>
-      <c r="B36" t="n">
+      <c r="B36">
         <v>-16.31561547495236</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>5.140233888602753</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36">
         <v>-3.903122244736591</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36">
         <v>-24.66774570041198</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36">
         <v>-3.850395154176979</v>
       </c>
-      <c r="G36" t="n">
+      <c r="G36">
         <v>-6.470250532259356</v>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
+    <row r="37" spans="1:7">
+      <c r="A37" s="1">
         <v>35</v>
       </c>
-      <c r="B37" t="n">
+      <c r="B37">
         <v>-16.23302867060688</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>5.169116291451404</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37">
         <v>-3.842747077237449</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37">
         <v>-24.21200007628003</v>
       </c>
-      <c r="F37" t="n">
+      <c r="F37">
         <v>-3.857553504914765</v>
       </c>
-      <c r="G37" t="n">
+      <c r="G37">
         <v>-6.349041528430019</v>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
+    <row r="38" spans="1:7">
+      <c r="A38" s="1">
         <v>36</v>
       </c>
-      <c r="B38" t="n">
+      <c r="B38">
         <v>-16.15539393210796</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>5.19626684909976</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38">
         <v>-3.785992122523178</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38">
         <v>-23.85884250231786</v>
       </c>
-      <c r="F38" t="n">
+      <c r="F38">
         <v>-3.848079776128606</v>
       </c>
-      <c r="G38" t="n">
+      <c r="G38">
         <v>-6.216033740298721</v>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
+    <row r="39" spans="1:7">
+      <c r="A39" s="1">
         <v>37</v>
       </c>
-      <c r="B39" t="n">
+      <c r="B39">
         <v>-16.07597548719351</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>5.224041207701129</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39">
         <v>-3.727933187415667</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39">
         <v>-23.40625775304326</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39">
         <v>-3.836148135761685</v>
       </c>
-      <c r="G39" t="n">
+      <c r="G39">
         <v>-6.104329312712633</v>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
+    <row r="40" spans="1:7">
+      <c r="A40" s="1">
         <v>38</v>
       </c>
-      <c r="B40" t="n">
+      <c r="B40">
         <v>-15.99537122255999</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>5.252230273265718</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40">
         <v>-3.669007357593798</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40">
         <v>-22.91723690190296</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F40">
         <v>-3.827942955413794</v>
       </c>
-      <c r="G40" t="n">
+      <c r="G40">
         <v>-5.975757655603958</v>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
+    <row r="41" spans="1:7">
+      <c r="A41" s="1">
         <v>39</v>
       </c>
-      <c r="B41" t="n">
+      <c r="B41">
         <v>-15.91788798126365</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>5.279327849045237</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41">
         <v>-3.612363155063899</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41">
         <v>-22.45987008407626</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F41">
         <v>-3.847200027492579</v>
       </c>
-      <c r="G41" t="n">
+      <c r="G41">
         <v>-5.889613950126583</v>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
+    <row r="42" spans="1:7">
+      <c r="A42" s="1">
         <v>40</v>
       </c>
-      <c r="B42" t="n">
+      <c r="B42">
         <v>-15.83501077691908</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>5.308311811093657</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42">
         <v>-3.551775690349418</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42">
         <v>-21.9936002863505</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F42">
         <v>-3.87814088996252</v>
       </c>
-      <c r="G42" t="n">
+      <c r="G42">
         <v>-5.854095107035741</v>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
+    <row r="43" spans="1:7">
+      <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43" t="n">
+      <c r="B43">
         <v>-15.74720371827434</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>5.339019850481201</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43">
         <v>-3.487584250623698</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43">
         <v>-21.48315069620589</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F43">
         <v>-3.866947256552194</v>
       </c>
-      <c r="G43" t="n">
+      <c r="G43">
         <v>-5.731254004255545</v>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
+    <row r="44" spans="1:7">
+      <c r="A44" s="1">
         <v>42</v>
       </c>
-      <c r="B44" t="n">
+      <c r="B44">
         <v>-15.65781521240353</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>5.370280956381359</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D44">
         <v>-3.422236692291357</v>
       </c>
-      <c r="E44" t="n">
+      <c r="E44">
         <v>-21.07022632229048</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F44">
         <v>-3.903416044519976</v>
       </c>
-      <c r="G44" t="n">
+      <c r="G44">
         <v>-5.727976564171667</v>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
+    <row r="45" spans="1:7">
+      <c r="A45" s="1">
         <v>43</v>
       </c>
-      <c r="B45" t="n">
+      <c r="B45">
         <v>-15.56133471269765</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>5.40402228687149</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D45">
         <v>-3.351704524636872</v>
       </c>
-      <c r="E45" t="n">
+      <c r="E45">
         <v>-20.58543959434735</v>
       </c>
-      <c r="F45" t="n">
+      <c r="F45">
         <v>-3.944253485255497</v>
       </c>
-      <c r="G45" t="n">
+      <c r="G45">
         <v>-5.652519299695058</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
+    <row r="46" spans="1:7">
+      <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" t="n">
+      <c r="B46">
         <v>-15.45935548067283</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>5.439686643724619</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D46">
         <v>-3.277152503115665</v>
       </c>
-      <c r="E46" t="n">
+      <c r="E46">
         <v>-20.12718066714114</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F46">
         <v>-3.978214474906181</v>
       </c>
-      <c r="G46" t="n">
+      <c r="G46">
         <v>-5.587728612945982</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
+    <row r="47" spans="1:7">
+      <c r="A47" s="1">
         <v>45</v>
       </c>
-      <c r="B47" t="n">
+      <c r="B47">
         <v>-15.35556660381407</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>5.475983872760187</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D47">
         <v>-3.201277538894002</v>
       </c>
-      <c r="E47" t="n">
+      <c r="E47">
         <v>-19.64786886427328</v>
       </c>
-      <c r="F47" t="n">
+      <c r="F47">
         <v>-4.043449697122005</v>
       </c>
-      <c r="G47" t="n">
+      <c r="G47">
         <v>-5.537878418215636</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
+    <row r="48" spans="1:7">
+      <c r="A48" s="1">
         <v>46</v>
       </c>
-      <c r="B48" t="n">
+      <c r="B48">
         <v>-15.24753228203979</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>5.513765826277997</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D48">
         <v>-3.122298937839378</v>
       </c>
-      <c r="E48" t="n">
+      <c r="E48">
         <v>-19.14198850440242</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F48">
         <v>-4.086229553162813</v>
       </c>
-      <c r="G48" t="n">
+      <c r="G48">
         <v>-5.505041117011605</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
+    <row r="49" spans="1:7">
+      <c r="A49" s="1">
         <v>47</v>
       </c>
-      <c r="B49" t="n">
+      <c r="B49">
         <v>-15.13631807332895</v>
       </c>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>5.552659855462652</v>
       </c>
-      <c r="D49" t="n">
+      <c r="D49">
         <v>-3.040995677198457</v>
       </c>
-      <c r="E49" t="n">
+      <c r="E49">
         <v>-18.706625541779</v>
       </c>
-      <c r="F49" t="n">
+      <c r="F49">
         <v>-4.15935004713161</v>
       </c>
-      <c r="G49" t="n">
+      <c r="G49">
         <v>-5.512019747008389</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
+    <row r="50" spans="1:7">
+      <c r="A50" s="1">
         <v>48</v>
       </c>
-      <c r="B50" t="n">
+      <c r="B50">
         <v>-15.0247527759338</v>
       </c>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>5.591676668001088</v>
       </c>
-      <c r="D50" t="n">
+      <c r="D50">
         <v>-2.959435752817007</v>
       </c>
-      <c r="E50" t="n">
+      <c r="E50">
         <v>-18.23883417678665</v>
       </c>
-      <c r="F50" t="n">
+      <c r="F50">
         <v>-4.218397730335812</v>
       </c>
-      <c r="G50" t="n">
+      <c r="G50">
         <v>-5.488395694040149</v>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
+    <row r="51" spans="1:7">
+      <c r="A51" s="1">
         <v>49</v>
       </c>
-      <c r="B51" t="n">
+      <c r="B51">
         <v>-14.91271119020537</v>
       </c>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>5.630860048935323</v>
       </c>
-      <c r="D51" t="n">
+      <c r="D51">
         <v>-2.877527637364018</v>
       </c>
-      <c r="E51" t="n">
+      <c r="E51">
         <v>-17.82438370713065</v>
       </c>
-      <c r="F51" t="n">
+      <c r="F51">
         <v>-4.262064461689266</v>
       </c>
-      <c r="G51" t="n">
+      <c r="G51">
         <v>-5.502127836937047</v>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
+    <row r="52" spans="1:7">
+      <c r="A52" s="1">
         <v>50</v>
       </c>
-      <c r="B52" t="n">
+      <c r="B52">
         <v>-14.79997920188963</v>
       </c>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>5.670284878679842</v>
       </c>
-      <c r="D52" t="n">
+      <c r="D52">
         <v>-2.795114802395836</v>
       </c>
-      <c r="E52" t="n">
+      <c r="E52">
         <v>-17.34485906598443</v>
       </c>
-      <c r="F52" t="n">
+      <c r="F52">
         <v>-4.31939619953409</v>
       </c>
-      <c r="G52" t="n">
+      <c r="G52">
         <v>-5.52859564852352</v>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
+    <row r="53" spans="1:7">
+      <c r="A53" s="1">
         <v>51</v>
       </c>
-      <c r="B53" t="n">
+      <c r="B53">
         <v>-14.68770269199793</v>
       </c>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>5.709550417706722</v>
       </c>
-      <c r="D53" t="n">
+      <c r="D53">
         <v>-2.713034945393821</v>
       </c>
-      <c r="E53" t="n">
+      <c r="E53">
         <v>-16.92871947552357</v>
       </c>
-      <c r="F53" t="n">
+      <c r="F53">
         <v>-4.359568483785127</v>
       </c>
-      <c r="G53" t="n">
+      <c r="G53">
         <v>-5.584980860148387</v>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
+    <row r="54" spans="1:7">
+      <c r="A54" s="1">
         <v>52</v>
       </c>
-      <c r="B54" t="n">
+      <c r="B54">
         <v>-14.57729258535313</v>
       </c>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>5.748163234898891</v>
       </c>
-      <c r="D54" t="n">
+      <c r="D54">
         <v>-2.63231952438792</v>
       </c>
-      <c r="E54" t="n">
+      <c r="E54">
         <v>-16.53138210914256</v>
       </c>
-      <c r="F54" t="n">
+      <c r="F54">
         <v>-4.423933459600416</v>
       </c>
-      <c r="G54" t="n">
+      <c r="G54">
         <v>-5.631940948622948</v>
       </c>
     </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
+    <row r="55" spans="1:7">
+      <c r="A55" s="1">
         <v>53</v>
       </c>
-      <c r="B55" t="n">
+      <c r="B55">
         <v>-14.46601947361548</v>
       </c>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>5.787077863753948</v>
       </c>
-      <c r="D55" t="n">
+      <c r="D55">
         <v>-2.550973202629214</v>
       </c>
-      <c r="E55" t="n">
+      <c r="E55">
         <v>-16.17028159177092</v>
       </c>
-      <c r="F55" t="n">
+      <c r="F55">
         <v>-4.475791909801481</v>
       </c>
-      <c r="G55" t="n">
+      <c r="G55">
         <v>-5.698621956874949</v>
       </c>
     </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
+    <row r="56" spans="1:7">
+      <c r="A56" s="1">
         <v>54</v>
       </c>
-      <c r="B56" t="n">
+      <c r="B56">
         <v>-14.35245526484777</v>
       </c>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>5.826793739102466</v>
       </c>
-      <c r="D56" t="n">
+      <c r="D56">
         <v>-2.467951972051313</v>
       </c>
-      <c r="E56" t="n">
+      <c r="E56">
         <v>-15.78010827127004</v>
       </c>
-      <c r="F56" t="n">
+      <c r="F56">
         <v>-4.499105644582666</v>
       </c>
-      <c r="G56" t="n">
+      <c r="G56">
         <v>-5.806760926915242</v>
       </c>
     </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
+    <row r="57" spans="1:7">
+      <c r="A57" s="1">
         <v>55</v>
       </c>
-      <c r="B57" t="n">
+      <c r="B57">
         <v>-14.23869899738709</v>
       </c>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>5.866576781555757</v>
       </c>
-      <c r="D57" t="n">
+      <c r="D57">
         <v>-2.38479033677016</v>
       </c>
-      <c r="E57" t="n">
+      <c r="E57">
         <v>-15.47570424847444</v>
       </c>
-      <c r="F57" t="n">
+      <c r="F57">
         <v>-4.549073941773654</v>
       </c>
-      <c r="G57" t="n">
+      <c r="G57">
         <v>-5.901273691515895</v>
       </c>
     </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
+    <row r="58" spans="1:7">
+      <c r="A58" s="1">
         <v>56</v>
       </c>
-      <c r="B58" t="n">
+      <c r="B58">
         <v>-14.12087153605541</v>
       </c>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>5.907783609108733</v>
       </c>
-      <c r="D58" t="n">
+      <c r="D58">
         <v>-2.298652451059749</v>
       </c>
-      <c r="E58" t="n">
+      <c r="E58">
         <v>-15.08801706020378</v>
       </c>
-      <c r="F58" t="n">
+      <c r="F58">
         <v>-4.590373824636483</v>
       </c>
-      <c r="G58" t="n">
+      <c r="G58">
         <v>-6.018960274891446</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
+    <row r="59" spans="1:7">
+      <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" t="n">
+      <c r="B59">
         <v>-13.99627713522777</v>
       </c>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>5.951356982675001</v>
       </c>
-      <c r="D59" t="n">
+      <c r="D59">
         <v>-2.207567587333155</v>
       </c>
-      <c r="E59" t="n">
+      <c r="E59">
         <v>-14.80580708851977</v>
       </c>
-      <c r="F59" t="n">
+      <c r="F59">
         <v>-4.59715366966048</v>
       </c>
-      <c r="G59" t="n">
+      <c r="G59">
         <v>-6.118766601809394</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
+    <row r="60" spans="1:7">
+      <c r="A60" s="1">
         <v>58</v>
       </c>
-      <c r="B60" t="n">
+      <c r="B60">
         <v>-13.86985265562775</v>
       </c>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>5.995570374616697</v>
       </c>
-      <c r="D60" t="n">
+      <c r="D60">
         <v>-2.115144842654568</v>
       </c>
-      <c r="E60" t="n">
+      <c r="E60">
         <v>-14.5346601788365</v>
       </c>
-      <c r="F60" t="n">
+      <c r="F60">
         <v>-4.640578094008871</v>
       </c>
-      <c r="G60" t="n">
+      <c r="G60">
         <v>-6.269085232565542</v>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
+    <row r="61" spans="1:7">
+      <c r="A61" s="1">
         <v>59</v>
       </c>
-      <c r="B61" t="n">
+      <c r="B61">
         <v>-13.73853343007035</v>
       </c>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>6.041495565745966</v>
       </c>
-      <c r="D61" t="n">
+      <c r="D61">
         <v>-2.019143788954525</v>
       </c>
-      <c r="E61" t="n">
+      <c r="E61">
         <v>-14.25783909122162</v>
       </c>
-      <c r="F61" t="n">
+      <c r="F61">
         <v>-4.659733017056111</v>
       </c>
-      <c r="G61" t="n">
+      <c r="G61">
         <v>-6.379124455745377</v>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
+    <row r="62" spans="1:7">
+      <c r="A62" s="1">
         <v>60</v>
       </c>
-      <c r="B62" t="n">
+      <c r="B62">
         <v>-13.60036137379797</v>
       </c>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>6.089817340917106</v>
       </c>
-      <c r="D62" t="n">
+      <c r="D62">
         <v>-1.918132966375071</v>
       </c>
-      <c r="E62" t="n">
+      <c r="E62">
         <v>-14.00024137576929</v>
       </c>
-      <c r="F62" t="n">
+      <c r="F62">
         <v>-4.686581583440557</v>
       </c>
-      <c r="G62" t="n">
+      <c r="G62">
         <v>-6.529068994855587</v>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
+    <row r="63" spans="1:7">
+      <c r="A63" s="1">
         <v>61</v>
       </c>
-      <c r="B63" t="n">
+      <c r="B63">
         <v>-13.46423392403761</v>
       </c>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>6.137424072693419</v>
       </c>
-      <c r="D63" t="n">
+      <c r="D63">
         <v>-1.818616855470341</v>
       </c>
-      <c r="E63" t="n">
+      <c r="E63">
         <v>-13.778083497901</v>
       </c>
-      <c r="F63" t="n">
+      <c r="F63">
         <v>-4.679229228728129</v>
       </c>
-      <c r="G63" t="n">
+      <c r="G63">
         <v>-6.674123858204293</v>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
+    <row r="64" spans="1:7">
+      <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64" t="n">
+      <c r="B64">
         <v>-13.3289779555418</v>
       </c>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>6.184726028505131</v>
       </c>
-      <c r="D64" t="n">
+      <c r="D64">
         <v>-1.719737841832371</v>
       </c>
-      <c r="E64" t="n">
+      <c r="E64">
         <v>-13.58187830457067</v>
       </c>
-      <c r="F64" t="n">
+      <c r="F64">
         <v>-4.72899481156194</v>
       </c>
-      <c r="G64" t="n">
+      <c r="G64">
         <v>-6.748352910285831</v>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
+    <row r="65" spans="1:7">
+      <c r="A65" s="1">
         <v>63</v>
       </c>
-      <c r="B65" t="n">
+      <c r="B65">
         <v>-13.19589433216417</v>
       </c>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>6.231268267951413</v>
       </c>
-      <c r="D65" t="n">
+      <c r="D65">
         <v>-1.622446923307372</v>
       </c>
-      <c r="E65" t="n">
+      <c r="E65">
         <v>-13.41982686220618</v>
       </c>
-      <c r="F65" t="n">
+      <c r="F65">
         <v>-4.757184776856763</v>
       </c>
-      <c r="G65" t="n">
+      <c r="G65">
         <v>-6.841180607206995</v>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" s="1" t="n">
+    <row r="66" spans="1:7">
+      <c r="A66" s="1">
         <v>64</v>
       </c>
-      <c r="B66" t="n">
+      <c r="B66">
         <v>-13.07796455409782</v>
       </c>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>6.272510877893261</v>
       </c>
-      <c r="D66" t="n">
+      <c r="D66">
         <v>-1.536234238843792</v>
       </c>
-      <c r="E66" t="n">
+      <c r="E66">
         <v>-13.31386509890071</v>
       </c>
-      <c r="F66" t="n">
+      <c r="F66">
         <v>-4.783516263259816</v>
       </c>
-      <c r="G66" t="n">
+      <c r="G66">
         <v>-6.919829237583461</v>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" s="1" t="n">
+    <row r="67" spans="1:7">
+      <c r="A67" s="1">
         <v>65</v>
       </c>
-      <c r="B67" t="n">
+      <c r="B67">
         <v>-12.97630160133189</v>
       </c>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>6.308064625006246</v>
       </c>
-      <c r="D67" t="n">
+      <c r="D67">
         <v>-1.461913433597189</v>
       </c>
-      <c r="E67" t="n">
+      <c r="E67">
         <v>-13.2015091302964</v>
       </c>
-      <c r="F67" t="n">
+      <c r="F67">
         <v>-4.826650869425683</v>
       </c>
-      <c r="G67" t="n">
+      <c r="G67">
         <v>-7.020483064159462</v>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" s="1" t="n">
+    <row r="68" spans="1:7">
+      <c r="A68" s="1">
         <v>66</v>
       </c>
-      <c r="B68" t="n">
+      <c r="B68">
         <v>-12.8965501505963</v>
       </c>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>6.335955442990606</v>
       </c>
-      <c r="D68" t="n">
+      <c r="D68">
         <v>-1.403611054244689</v>
       </c>
-      <c r="E68" t="n">
+      <c r="E68">
         <v>-13.10520660204928</v>
       </c>
-      <c r="F68" t="n">
+      <c r="F68">
         <v>-4.851233944498092</v>
       </c>
-      <c r="G68" t="n">
+      <c r="G68">
         <v>-7.080228479506689</v>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" s="1" t="n">
+    <row r="69" spans="1:7">
+      <c r="A69" s="1">
         <v>67</v>
       </c>
-      <c r="B69" t="n">
+      <c r="B69">
         <v>-12.85336660321274</v>
       </c>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>6.351057669331127</v>
       </c>
-      <c r="D69" t="n">
+      <c r="D69">
         <v>-1.372041677912087</v>
       </c>
-      <c r="E69" t="n">
+      <c r="E69">
         <v>-13.10216346751612</v>
       </c>
-      <c r="F69" t="n">
+      <c r="F69">
         <v>-4.913952658014282</v>
       </c>
-      <c r="G69" t="n">
+      <c r="G69">
         <v>-7.081880441730786</v>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" s="1" t="n">
+    <row r="70" spans="1:7">
+      <c r="A70" s="1">
         <v>68</v>
       </c>
-      <c r="B70" t="n">
+      <c r="B70">
         <v>-12.84835994520942</v>
       </c>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>6.352808606596749</v>
       </c>
-      <c r="D70" t="n">
+      <c r="D70">
         <v>-1.368381555475378</v>
       </c>
-      <c r="E70" t="n">
+      <c r="E70">
         <v>-13.08134154402886</v>
       </c>
-      <c r="F70" t="n">
+      <c r="F70">
         <v>-4.929460306338266</v>
       </c>
-      <c r="G70" t="n">
+      <c r="G70">
         <v>-7.126675433422665</v>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" s="1" t="n">
+    <row r="71" spans="1:7">
+      <c r="A71" s="1">
         <v>69</v>
       </c>
-      <c r="B71" t="n">
+      <c r="B71">
         <v>-12.8887145905585</v>
       </c>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>6.338695708864194</v>
       </c>
-      <c r="D71" t="n">
+      <c r="D71">
         <v>-1.397882860092113</v>
       </c>
-      <c r="E71" t="n">
+      <c r="E71">
         <v>-13.07828482407368</v>
       </c>
-      <c r="F71" t="n">
+      <c r="F71">
         <v>-4.98648242967662</v>
       </c>
-      <c r="G71" t="n">
+      <c r="G71">
         <v>-7.136898398047934</v>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
+    <row r="72" spans="1:7">
+      <c r="A72" s="1">
         <v>70</v>
       </c>
-      <c r="B72" t="n">
+      <c r="B72">
         <v>-12.98834237054296</v>
       </c>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>6.30385370596515</v>
       </c>
-      <c r="D72" t="n">
+      <c r="D72">
         <v>-1.470715850202333</v>
       </c>
-      <c r="E72" t="n">
+      <c r="E72">
         <v>-13.25503569306706</v>
       </c>
-      <c r="F72" t="n">
+      <c r="F72">
         <v>-5.026657881339489</v>
       </c>
-      <c r="G72" t="n">
+      <c r="G72">
         <v>-7.08199631082466</v>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" s="1" t="n">
+    <row r="73" spans="1:7">
+      <c r="A73" s="1">
         <v>71</v>
       </c>
-      <c r="B73" t="n">
+      <c r="B73">
         <v>-13.14599966677959</v>
       </c>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>6.248717518313586</v>
       </c>
-      <c r="D73" t="n">
+      <c r="D73">
         <v>-1.585971377319347</v>
       </c>
-      <c r="E73" t="n">
+      <c r="E73">
         <v>-13.35887813053695</v>
       </c>
-      <c r="F73" t="n">
+      <c r="F73">
         <v>-5.098037882507217</v>
       </c>
-      <c r="G73" t="n">
+      <c r="G73">
         <v>-7.063755204903276</v>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" s="1" t="n">
+    <row r="74" spans="1:7">
+      <c r="A74" s="1">
         <v>72</v>
       </c>
-      <c r="B74" t="n">
+      <c r="B74">
         <v>-13.3689918587359</v>
       </c>
-      <c r="C74" t="n">
+      <c r="C74">
         <v>6.170732295719874</v>
       </c>
-      <c r="D74" t="n">
+      <c r="D74">
         <v>-1.748990046549391</v>
       </c>
-      <c r="E74" t="n">
+      <c r="E74">
         <v>-13.51211716248251</v>
       </c>
-      <c r="F74" t="n">
+      <c r="F74">
         <v>-5.154573016276575</v>
       </c>
-      <c r="G74" t="n">
+      <c r="G74">
         <v>-7.033678898678997</v>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" s="1" t="n">
+    <row r="75" spans="1:7">
+      <c r="A75" s="1">
         <v>73</v>
       </c>
-      <c r="B75" t="n">
+      <c r="B75">
         <v>-13.66801099575807</v>
       </c>
-      <c r="C75" t="n">
+      <c r="C75">
         <v>6.066158795832384</v>
       </c>
-      <c r="D75" t="n">
+      <c r="D75">
         <v>-1.967588291465615</v>
       </c>
-      <c r="E75" t="n">
+      <c r="E75">
         <v>-13.70220891590249</v>
       </c>
-      <c r="F75" t="n">
+      <c r="F75">
         <v>-5.207462459028591</v>
       </c>
-      <c r="G75" t="n">
+      <c r="G75">
         <v>-6.920954823066814</v>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" s="1" t="n">
+    <row r="76" spans="1:7">
+      <c r="A76" s="1">
         <v>74</v>
       </c>
-      <c r="B76" t="n">
+      <c r="B76">
         <v>-14.03690736506211</v>
       </c>
-      <c r="C76" t="n">
+      <c r="C76">
         <v>5.937147707050297</v>
       </c>
-      <c r="D76" t="n">
+      <c r="D76">
         <v>-2.237270358268747</v>
       </c>
-      <c r="E76" t="n">
+      <c r="E76">
         <v>-13.9540735832611</v>
       </c>
-      <c r="F76" t="n">
+      <c r="F76">
         <v>-5.313322113534309</v>
       </c>
-      <c r="G76" t="n">
+      <c r="G76">
         <v>-6.836228031080246</v>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" s="1" t="n">
+    <row r="77" spans="1:7">
+      <c r="A77" s="1">
         <v>75</v>
       </c>
-      <c r="B77" t="n">
+      <c r="B77">
         <v>-14.48233366738619</v>
       </c>
-      <c r="C77" t="n">
+      <c r="C77">
         <v>5.781372435140129</v>
       </c>
-      <c r="D77" t="n">
+      <c r="D77">
         <v>-2.562899710614674</v>
       </c>
-      <c r="E77" t="n">
+      <c r="E77">
         <v>-14.28230643628506</v>
       </c>
-      <c r="F77" t="n">
+      <c r="F77">
         <v>-5.34606206592419</v>
       </c>
-      <c r="G77" t="n">
+      <c r="G77">
         <v>-6.760827045877805</v>
       </c>
     </row>
-    <row r="78">
-      <c r="A78" s="1" t="n">
+    <row r="78" spans="1:7">
+      <c r="A78" s="1">
         <v>76</v>
       </c>
-      <c r="B78" t="n">
+      <c r="B78">
         <v>-15.01206436308998</v>
       </c>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>5.596114082115482</v>
       </c>
-      <c r="D78" t="n">
+      <c r="D78">
         <v>-2.950159875673977</v>
       </c>
-      <c r="E78" t="n">
+      <c r="E78">
         <v>-14.66935058124664</v>
       </c>
-      <c r="F78" t="n">
+      <c r="F78">
         <v>-5.420337873358299</v>
       </c>
-      <c r="G78" t="n">
+      <c r="G78">
         <v>-6.629981043983651</v>
       </c>
     </row>
-    <row r="79">
-      <c r="A79" s="1" t="n">
+    <row r="79" spans="1:7">
+      <c r="A79" s="1">
         <v>77</v>
       </c>
-      <c r="B79" t="n">
+      <c r="B79">
         <v>-15.61473629469219</v>
       </c>
-      <c r="C79" t="n">
+      <c r="C79">
         <v>5.385346591448408</v>
       </c>
-      <c r="D79" t="n">
+      <c r="D79">
         <v>-3.390743805587284</v>
       </c>
-      <c r="E79" t="n">
+      <c r="E79">
         <v>-15.05687474445303</v>
       </c>
-      <c r="F79" t="n">
+      <c r="F79">
         <v>-5.48147684022384</v>
       </c>
-      <c r="G79" t="n">
+      <c r="G79">
         <v>-6.546578470212792</v>
       </c>
     </row>
-    <row r="80">
-      <c r="A80" s="1" t="n">
+    <row r="80" spans="1:7">
+      <c r="A80" s="1">
         <v>78</v>
       </c>
-      <c r="B80" t="n">
+      <c r="B80">
         <v>-16.2979071876957</v>
       </c>
-      <c r="C80" t="n">
+      <c r="C80">
         <v>5.146426862048814</v>
       </c>
-      <c r="D80" t="n">
+      <c r="D80">
         <v>-3.890176583287195</v>
       </c>
-      <c r="E80" t="n">
+      <c r="E80">
         <v>-15.54147580496185</v>
       </c>
-      <c r="F80" t="n">
+      <c r="F80">
         <v>-5.549766239297588</v>
       </c>
-      <c r="G80" t="n">
+      <c r="G80">
         <v>-6.489064362559033</v>
       </c>
     </row>
-    <row r="81">
-      <c r="A81" s="1" t="n">
+    <row r="81" spans="1:7">
+      <c r="A81" s="1">
         <v>79</v>
       </c>
-      <c r="B81" t="n">
+      <c r="B81">
         <v>-17.0689559021554</v>
       </c>
-      <c r="C81" t="n">
+      <c r="C81">
         <v>4.876774345966469</v>
       </c>
-      <c r="D81" t="n">
+      <c r="D81">
         <v>-4.453852531938276</v>
       </c>
-      <c r="E81" t="n">
+      <c r="E81">
         <v>-16.11086801279029</v>
       </c>
-      <c r="F81" t="n">
+      <c r="F81">
         <v>-5.617978828634438</v>
       </c>
-      <c r="G81" t="n">
+      <c r="G81">
         <v>-6.354831672578205</v>
       </c>
     </row>
-    <row r="82">
-      <c r="A82" s="1" t="n">
+    <row r="82" spans="1:7">
+      <c r="A82" s="1">
         <v>80</v>
       </c>
-      <c r="B82" t="n">
+      <c r="B82">
         <v>-17.91234842679126</v>
       </c>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>4.581821625018788</v>
       </c>
-      <c r="D82" t="n">
+      <c r="D82">
         <v>-5.070415496760123</v>
       </c>
-      <c r="E82" t="n">
+      <c r="E82">
         <v>-16.81205239966396</v>
       </c>
-      <c r="F82" t="n">
+      <c r="F82">
         <v>-5.714078895436262</v>
       </c>
-      <c r="G82" t="n">
+      <c r="G82">
         <v>-6.261752374196056</v>
       </c>
     </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
+    <row r="83" spans="1:7">
+      <c r="A83" s="1">
         <v>81</v>
       </c>
-      <c r="B83" t="n">
+      <c r="B83">
         <v>-18.83901138283663</v>
       </c>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>4.257747421960119</v>
       </c>
-      <c r="D83" t="n">
+      <c r="D83">
         <v>-5.747853395343108</v>
       </c>
-      <c r="E83" t="n">
+      <c r="E83">
         <v>-17.54696938942076</v>
       </c>
-      <c r="F83" t="n">
+      <c r="F83">
         <v>-5.756132622314841</v>
       </c>
-      <c r="G83" t="n">
+      <c r="G83">
         <v>-6.187169093741816</v>
       </c>
     </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
+    <row r="84" spans="1:7">
+      <c r="A84" s="1">
         <v>82</v>
       </c>
-      <c r="B84" t="n">
+      <c r="B84">
         <v>-19.85761213377939</v>
       </c>
-      <c r="C84" t="n">
+      <c r="C84">
         <v>3.901520571147525</v>
       </c>
-      <c r="D84" t="n">
+      <c r="D84">
         <v>-6.492502512599844</v>
       </c>
-      <c r="E84" t="n">
+      <c r="E84">
         <v>-18.34823305186395</v>
       </c>
-      <c r="F84" t="n">
+      <c r="F84">
         <v>-5.816175664686897</v>
       </c>
-      <c r="G84" t="n">
+      <c r="G84">
         <v>-6.124811657964104</v>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
+    <row r="85" spans="1:7">
+      <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85" t="n">
+      <c r="B85">
         <v>-20.94834689560082</v>
       </c>
-      <c r="C85" t="n">
+      <c r="C85">
         <v>3.520066886849865</v>
       </c>
-      <c r="D85" t="n">
+      <c r="D85">
         <v>-7.289885272037078</v>
       </c>
-      <c r="E85" t="n">
+      <c r="E85">
         <v>-19.322398380394</v>
       </c>
-      <c r="F85" t="n">
+      <c r="F85">
         <v>-5.892775560551915</v>
       </c>
-      <c r="G85" t="n">
+      <c r="G85">
         <v>-6.025776688156806</v>
       </c>
     </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
+    <row r="86" spans="1:7">
+      <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86" t="n">
+      <c r="B86">
         <v>-22.12572953179411</v>
       </c>
-      <c r="C86" t="n">
+      <c r="C86">
         <v>3.108310555132674</v>
       </c>
-      <c r="D86" t="n">
+      <c r="D86">
         <v>-8.150612048355754</v>
       </c>
-      <c r="E86" t="n">
+      <c r="E86">
         <v>-20.321334461746</v>
       </c>
-      <c r="F86" t="n">
+      <c r="F86">
         <v>-5.957555467317049</v>
       </c>
-      <c r="G86" t="n">
+      <c r="G86">
         <v>-6.015249153341924</v>
       </c>
     </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
+    <row r="87" spans="1:7">
+      <c r="A87" s="1">
         <v>85</v>
       </c>
-      <c r="B87" t="n">
+      <c r="B87">
         <v>-23.39941137308019</v>
       </c>
-      <c r="C87" t="n">
+      <c r="C87">
         <v>2.662876295597134</v>
       </c>
-      <c r="D87" t="n">
+      <c r="D87">
         <v>-9.081738456717225</v>
       </c>
-      <c r="E87" t="n">
+      <c r="E87">
         <v>-21.53042796484597</v>
       </c>
-      <c r="F87" t="n">
+      <c r="F87">
         <v>-5.9862355895927</v>
       </c>
-      <c r="G87" t="n">
+      <c r="G87">
         <v>-5.957655592595223</v>
       </c>
     </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
+    <row r="88" spans="1:7">
+      <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88" t="n">
+      <c r="B88">
         <v>-24.74358609730547</v>
       </c>
-      <c r="C88" t="n">
+      <c r="C88">
         <v>2.192789140733483</v>
       </c>
-      <c r="D88" t="n">
+      <c r="D88">
         <v>-10.06439875900619</v>
       </c>
-      <c r="E88" t="n">
+      <c r="E88">
         <v>-22.80730366689275</v>
       </c>
-      <c r="F88" t="n">
+      <c r="F88">
         <v>-6.052234158059766</v>
       </c>
-      <c r="G88" t="n">
+      <c r="G88">
         <v>-6.019188702533657</v>
       </c>
     </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
+    <row r="89" spans="1:7">
+      <c r="A89" s="1">
         <v>87</v>
       </c>
-      <c r="B89" t="n">
+      <c r="B89">
         <v>-26.17470589175883</v>
       </c>
-      <c r="C89" t="n">
+      <c r="C89">
         <v>1.692295402591383</v>
       </c>
-      <c r="D89" t="n">
+      <c r="D89">
         <v>-11.11062034351023</v>
       </c>
-      <c r="E89" t="n">
+      <c r="E89">
         <v>-24.15480544956316</v>
       </c>
-      <c r="F89" t="n">
+      <c r="F89">
         <v>-6.086149220238902</v>
       </c>
-      <c r="G89" t="n">
+      <c r="G89">
         <v>-6.0239889935656</v>
       </c>
     </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
+    <row r="90" spans="1:7">
+      <c r="A90" s="1">
         <v>88</v>
       </c>
-      <c r="B90" t="n">
+      <c r="B90">
         <v>-27.70279206363709</v>
       </c>
-      <c r="C90" t="n">
+      <c r="C90">
         <v>1.157890411946469</v>
       </c>
-      <c r="D90" t="n">
+      <c r="D90">
         <v>-12.22772929707051</v>
       </c>
-      <c r="E90" t="n">
+      <c r="E90">
         <v>-25.68935585112039</v>
       </c>
-      <c r="F90" t="n">
+      <c r="F90">
         <v>-6.12799825312791</v>
       </c>
-      <c r="G90" t="n">
+      <c r="G90">
         <v>-6.12914516207501</v>
       </c>
     </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
+    <row r="91" spans="1:7">
+      <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91" t="n">
+      <c r="B91">
         <v>-29.29421627677129</v>
       </c>
-      <c r="C91" t="n">
+      <c r="C91">
         <v>0.6013347298236988</v>
       </c>
-      <c r="D91" t="n">
+      <c r="D91">
         <v>-13.39114159025268</v>
       </c>
-      <c r="E91" t="n">
+      <c r="E91">
         <v>-27.33046124607811</v>
       </c>
-      <c r="F91" t="n">
+      <c r="F91">
         <v>-6.14940005894268</v>
       </c>
-      <c r="G91" t="n">
+      <c r="G91">
         <v>-6.260289113067699</v>
       </c>
     </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
+    <row r="92" spans="1:7">
+      <c r="A92" s="1">
         <v>90</v>
       </c>
-      <c r="B92" t="n">
+      <c r="B92">
         <v>-30.96664741430535</v>
       </c>
-      <c r="C92" t="n">
+      <c r="C92">
         <v>0.01644916325281359</v>
       </c>
-      <c r="D92" t="n">
+      <c r="D92">
         <v>-14.61377407808932</v>
       </c>
-      <c r="E92" t="n">
+      <c r="E92">
         <v>-29.1606576017001</v>
       </c>
-      <c r="F92" t="n">
+      <c r="F92">
         <v>-6.166228913926618</v>
       </c>
-      <c r="G92" t="n">
+      <c r="G92">
         <v>-6.3691199871257</v>
       </c>
     </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
+    <row r="93" spans="1:7">
+      <c r="A93" s="1">
         <v>91</v>
       </c>
-      <c r="B93" t="n">
+      <c r="B93">
         <v>-32.72914753413951</v>
       </c>
-      <c r="C93" t="n">
+      <c r="C93">
         <v>-0.5999354866350309</v>
       </c>
-      <c r="D93" t="n">
+      <c r="D93">
         <v>-15.90225158724557</v>
       </c>
-      <c r="E93" t="n">
+      <c r="E93">
         <v>-30.97884670849076</v>
       </c>
-      <c r="F93" t="n">
+      <c r="F93">
         <v>-6.182085769404956</v>
       </c>
-      <c r="G93" t="n">
+      <c r="G93">
         <v>-6.609872790378118</v>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
+    <row r="94" spans="1:7">
+      <c r="A94" s="1">
         <v>92</v>
       </c>
-      <c r="B94" t="n">
+      <c r="B94">
         <v>-34.54108101903586</v>
       </c>
-      <c r="C94" t="n">
+      <c r="C94">
         <v>-1.233608060122851</v>
       </c>
-      <c r="D94" t="n">
+      <c r="D94">
         <v>-17.22686740831895</v>
       </c>
-      <c r="E94" t="n">
+      <c r="E94">
         <v>-32.9977581614344</v>
       </c>
-      <c r="F94" t="n">
+      <c r="F94">
         <v>-6.176606542864015</v>
       </c>
-      <c r="G94" t="n">
+      <c r="G94">
         <v>-6.858521244741699</v>
       </c>
     </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
+    <row r="95" spans="1:7">
+      <c r="A95" s="1">
         <v>93</v>
       </c>
-      <c r="B95" t="n">
+      <c r="B95">
         <v>-36.41430045555368</v>
       </c>
-      <c r="C95" t="n">
+      <c r="C95">
         <v>-1.888713664682911</v>
       </c>
-      <c r="D95" t="n">
+      <c r="D95">
         <v>-18.59628638679519</v>
       </c>
-      <c r="E95" t="n">
+      <c r="E95">
         <v>-35.11806214740979</v>
       </c>
-      <c r="F95" t="n">
+      <c r="F95">
         <v>-6.172453670027253</v>
       </c>
-      <c r="G95" t="n">
+      <c r="G95">
         <v>-7.133551436507731</v>
       </c>
     </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
+    <row r="96" spans="1:7">
+      <c r="A96" s="1">
         <v>94</v>
       </c>
-      <c r="B96" t="n">
+      <c r="B96">
         <v>-38.36220357956404</v>
       </c>
-      <c r="C96" t="n">
+      <c r="C96">
         <v>-2.569937780129517</v>
       </c>
-      <c r="D96" t="n">
+      <c r="D96">
         <v>-20.02030295113942</v>
       </c>
-      <c r="E96" t="n">
+      <c r="E96">
         <v>-37.30158589476925</v>
       </c>
-      <c r="F96" t="n">
+      <c r="F96">
         <v>-6.145988756400824</v>
       </c>
-      <c r="G96" t="n">
+      <c r="G96">
         <v>-7.484644722584058</v>
       </c>
     </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
+    <row r="97" spans="1:7">
+      <c r="A97" s="1">
         <v>95</v>
       </c>
-      <c r="B97" t="n">
+      <c r="B97">
         <v>-40.3255461784861</v>
       </c>
-      <c r="C97" t="n">
+      <c r="C97">
         <v>-3.256561415968097</v>
       </c>
-      <c r="D97" t="n">
+      <c r="D97">
         <v>-21.45560655935562</v>
       </c>
-      <c r="E97" t="n">
+      <c r="E97">
         <v>-39.55468964525658</v>
       </c>
-      <c r="F97" t="n">
+      <c r="F97">
         <v>-6.118497601341189</v>
       </c>
-      <c r="G97" t="n">
+      <c r="G97">
         <v>-7.866042742526874</v>
       </c>
     </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
+    <row r="98" spans="1:7">
+      <c r="A98" s="1">
         <v>96</v>
       </c>
-      <c r="B98" t="n">
+      <c r="B98">
         <v>-42.34076729441756</v>
       </c>
-      <c r="C98" t="n">
+      <c r="C98">
         <v>-3.96132809825739</v>
       </c>
-      <c r="D98" t="n">
+      <c r="D98">
         <v>-22.92883601031235</v>
       </c>
-      <c r="E98" t="n">
+      <c r="E98">
         <v>-41.89309852486339</v>
       </c>
-      <c r="F98" t="n">
+      <c r="F98">
         <v>-6.08202762559397</v>
       </c>
-      <c r="G98" t="n">
+      <c r="G98">
         <v>-8.239548421904066</v>
       </c>
     </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
+    <row r="99" spans="1:7">
+      <c r="A99" s="1">
         <v>97</v>
       </c>
-      <c r="B99" t="n">
+      <c r="B99">
         <v>-44.35609460817885</v>
       </c>
-      <c r="C99" t="n">
+      <c r="C99">
         <v>-4.666131920239001</v>
       </c>
-      <c r="D99" t="n">
+      <c r="D99">
         <v>-24.40214309730082</v>
       </c>
-      <c r="E99" t="n">
+      <c r="E99">
         <v>-44.30851863344464</v>
       </c>
-      <c r="F99" t="n">
+      <c r="F99">
         <v>-6.010344344743435</v>
       </c>
-      <c r="G99" t="n">
+      <c r="G99">
         <v>-8.663381014569261</v>
       </c>
     </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
+    <row r="100" spans="1:7">
+      <c r="A100" s="1">
         <v>98</v>
       </c>
-      <c r="B100" t="n">
+      <c r="B100">
         <v>-46.40989337361975</v>
       </c>
-      <c r="C100" t="n">
+      <c r="C100">
         <v>-5.384390046142271</v>
       </c>
-      <c r="D100" t="n">
+      <c r="D100">
         <v>-25.90357477825438</v>
       </c>
-      <c r="E100" t="n">
+      <c r="E100">
         <v>-46.733446273205</v>
       </c>
-      <c r="F100" t="n">
+      <c r="F100">
         <v>-5.929205547724767</v>
       </c>
-      <c r="G100" t="n">
+      <c r="G100">
         <v>-9.085098168634859</v>
       </c>
     </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
+    <row r="101" spans="1:7">
+      <c r="A101" s="1">
         <v>99</v>
       </c>
-      <c r="B101" t="n">
+      <c r="B101">
         <v>-48.37211684626921</v>
       </c>
-      <c r="C101" t="n">
+      <c r="C101">
         <v>-6.070622299167338</v>
       </c>
-      <c r="D101" t="n">
+      <c r="D101">
         <v>-27.33806024806825</v>
       </c>
-      <c r="E101" t="n">
+      <c r="E101">
         <v>-49.02382049689395</v>
       </c>
-      <c r="F101" t="n">
+      <c r="F101">
         <v>-5.837473341837726</v>
       </c>
-      <c r="G101" t="n">
+      <c r="G101">
         <v>-9.512069158471283</v>
       </c>
     </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
+    <row r="102" spans="1:7">
+      <c r="A102" s="1">
         <v>100</v>
       </c>
-      <c r="B102" t="n">
+      <c r="B102">
         <v>-50.44811602478597</v>
       </c>
-      <c r="C102" t="n">
+      <c r="C102">
         <v>-6.79664439267954</v>
       </c>
-      <c r="D102" t="n">
+      <c r="D102">
         <v>-28.85572156363024</v>
       </c>
-      <c r="E102" t="n">
+      <c r="E102">
         <v>-51.4798553567315</v>
       </c>
-      <c r="F102" t="n">
+      <c r="F102">
         <v>-5.686902501927321</v>
       </c>
-      <c r="G102" t="n">
+      <c r="G102">
         <v>-9.881022837731978</v>
       </c>
     </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
+    <row r="103" spans="1:7">
+      <c r="A103" s="1">
         <v>101</v>
       </c>
-      <c r="B103" t="n">
+      <c r="B103">
         <v>-41.9334295536276</v>
       </c>
-      <c r="C103" t="n">
+      <c r="C103">
         <v>-3.818873225252022</v>
       </c>
-      <c r="D103" t="n">
+      <c r="D103">
         <v>-22.63105133970037</v>
       </c>
-      <c r="E103" t="inlineStr"/>
-      <c r="F103" t="inlineStr"/>
-      <c r="G103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="1" t="n">
+    </row>
+    <row r="104" spans="1:7">
+      <c r="A104" s="1">
         <v>102</v>
       </c>
-      <c r="B104" t="n">
+      <c r="B104">
         <v>-42.30188550264812</v>
       </c>
-      <c r="C104" t="n">
+      <c r="C104">
         <v>-3.947730289475922</v>
       </c>
-      <c r="D104" t="n">
+      <c r="D104">
         <v>-22.90041143680631</v>
       </c>
-      <c r="E104" t="inlineStr"/>
-      <c r="F104" t="inlineStr"/>
-      <c r="G104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="1" t="n">
+    </row>
+    <row r="105" spans="1:7">
+      <c r="A105" s="1">
         <v>103</v>
       </c>
-      <c r="B105" t="n">
+      <c r="B105">
         <v>-42.63674735874226</v>
       </c>
-      <c r="C105" t="n">
+      <c r="C105">
         <v>-4.06483876828204</v>
       </c>
-      <c r="D105" t="n">
+      <c r="D105">
         <v>-23.14521253803529</v>
       </c>
-      <c r="E105" t="inlineStr"/>
-      <c r="F105" t="inlineStr"/>
-      <c r="G105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="1" t="n">
+    </row>
+    <row r="106" spans="1:7">
+      <c r="A106" s="1">
         <v>104</v>
       </c>
-      <c r="B106" t="n">
+      <c r="B106">
         <v>-42.90559750158409</v>
       </c>
-      <c r="C106" t="n">
+      <c r="C106">
         <v>-4.158861514325003</v>
       </c>
-      <c r="D106" t="n">
+      <c r="D106">
         <v>-23.34175570900412</v>
       </c>
-      <c r="E106" t="inlineStr"/>
-      <c r="F106" t="inlineStr"/>
-      <c r="G106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="1" t="n">
+    </row>
+    <row r="107" spans="1:7">
+      <c r="A107" s="1">
         <v>105</v>
       </c>
-      <c r="B107" t="n">
+      <c r="B107">
         <v>-43.11109052844982</v>
       </c>
-      <c r="C107" t="n">
+      <c r="C107">
         <v>-4.230726898045345</v>
       </c>
-      <c r="D107" t="n">
+      <c r="D107">
         <v>-23.49198159575745</v>
       </c>
-      <c r="E107" t="inlineStr"/>
-      <c r="F107" t="inlineStr"/>
-      <c r="G107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="1" t="n">
+    </row>
+    <row r="108" spans="1:7">
+      <c r="A108" s="1">
         <v>106</v>
       </c>
-      <c r="B108" t="n">
+      <c r="B108">
         <v>-43.24647104593114</v>
       </c>
-      <c r="C108" t="n">
+      <c r="C108">
         <v>-4.278072411347899</v>
       </c>
-      <c r="D108" t="n">
+      <c r="D108">
         <v>-23.59095166105823</v>
       </c>
-      <c r="E108" t="inlineStr"/>
-      <c r="F108" t="inlineStr"/>
-      <c r="G108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="1" t="n">
+    </row>
+    <row r="109" spans="1:7">
+      <c r="A109" s="1">
         <v>107</v>
       </c>
-      <c r="B109" t="n">
+      <c r="B109">
         <v>-43.31465613774677</v>
       </c>
-      <c r="C109" t="n">
+      <c r="C109">
         <v>-4.301918221894736</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D109">
         <v>-23.64079844193246</v>
       </c>
-      <c r="E109" t="inlineStr"/>
-      <c r="F109" t="inlineStr"/>
-      <c r="G109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="1" t="n">
+    </row>
+    <row r="110" spans="1:7">
+      <c r="A110" s="1">
         <v>108</v>
       </c>
-      <c r="B110" t="n">
+      <c r="B110">
         <v>-43.31183964576972</v>
       </c>
-      <c r="C110" t="n">
+      <c r="C110">
         <v>-4.300933233353939</v>
       </c>
-      <c r="D110" t="n">
+      <c r="D110">
         <v>-23.63873944260173</v>
       </c>
-      <c r="E110" t="inlineStr"/>
-      <c r="F110" t="inlineStr"/>
-      <c r="G110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="1" t="n">
+    </row>
+    <row r="111" spans="1:7">
+      <c r="A111" s="1">
         <v>109</v>
       </c>
-      <c r="B111" t="n">
+      <c r="B111">
         <v>-43.23813874776103</v>
       </c>
-      <c r="C111" t="n">
+      <c r="C111">
         <v>-4.275158425338733</v>
       </c>
-      <c r="D111" t="n">
+      <c r="D111">
         <v>-23.58486032598769</v>
       </c>
-      <c r="E111" t="inlineStr"/>
-      <c r="F111" t="inlineStr"/>
-      <c r="G111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="1" t="n">
+    </row>
+    <row r="112" spans="1:7">
+      <c r="A112" s="1">
         <v>110</v>
       </c>
-      <c r="B112" t="n">
+      <c r="B112">
         <v>-43.09913528879671</v>
       </c>
-      <c r="C112" t="n">
+      <c r="C112">
         <v>-4.226545890552079</v>
       </c>
-      <c r="D112" t="n">
+      <c r="D112">
         <v>-23.48324170562283</v>
       </c>
-      <c r="E112" t="inlineStr"/>
-      <c r="F112" t="inlineStr"/>
-      <c r="G112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="1" t="n">
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="1">
         <v>111</v>
       </c>
-      <c r="B113" t="n">
+      <c r="B113">
         <v>-42.89609466845786</v>
       </c>
-      <c r="C113" t="n">
+      <c r="C113">
         <v>-4.155538166766872</v>
       </c>
-      <c r="D113" t="n">
+      <c r="D113">
         <v>-23.33480865316076</v>
       </c>
-      <c r="E113" t="inlineStr"/>
-      <c r="F113" t="inlineStr"/>
-      <c r="G113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="1" t="n">
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="1">
         <v>112</v>
       </c>
-      <c r="B114" t="n">
+      <c r="B114">
         <v>-42.63118111317257</v>
       </c>
-      <c r="C114" t="n">
+      <c r="C114">
         <v>-4.062892131065934</v>
       </c>
-      <c r="D114" t="n">
+      <c r="D114">
         <v>-23.14114332853779</v>
       </c>
-      <c r="E114" t="inlineStr"/>
-      <c r="F114" t="inlineStr"/>
-      <c r="G114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="1" t="n">
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="1">
         <v>113</v>
       </c>
-      <c r="B115" t="n">
+      <c r="B115">
         <v>-42.31896511894544</v>
       </c>
-      <c r="C115" t="n">
+      <c r="C115">
         <v>-3.953703403005489</v>
       </c>
-      <c r="D115" t="n">
+      <c r="D115">
         <v>-22.91289750771006</v>
       </c>
-      <c r="E115" t="inlineStr"/>
-      <c r="F115" t="inlineStr"/>
-      <c r="G115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="1" t="n">
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="1">
         <v>114</v>
       </c>
-      <c r="B116" t="n">
+      <c r="B116">
         <v>-41.96564801951131</v>
       </c>
-      <c r="C116" t="n">
+      <c r="C116">
         <v>-3.830140723954674</v>
       </c>
-      <c r="D116" t="n">
+      <c r="D116">
         <v>-22.65460468202559</v>
       </c>
-      <c r="E116" t="inlineStr"/>
-      <c r="F116" t="inlineStr"/>
-      <c r="G116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="1" t="n">
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="1">
         <v>115</v>
       </c>
-      <c r="B117" t="n">
+      <c r="B117">
         <v>-41.576564056214</v>
       </c>
-      <c r="C117" t="n">
+      <c r="C117">
         <v>-3.694069594202604</v>
       </c>
-      <c r="D117" t="n">
+      <c r="D117">
         <v>-22.37016445405605</v>
       </c>
-      <c r="E117" t="inlineStr"/>
-      <c r="F117" t="inlineStr"/>
-      <c r="G117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="1" t="n">
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="1">
         <v>116</v>
       </c>
-      <c r="B118" t="n">
+      <c r="B118">
         <v>-41.16757103099144</v>
       </c>
-      <c r="C118" t="n">
+      <c r="C118">
         <v>-3.551035832206548</v>
       </c>
-      <c r="D118" t="n">
+      <c r="D118">
         <v>-22.07116968607236</v>
       </c>
-      <c r="E118" t="inlineStr"/>
-      <c r="F118" t="inlineStr"/>
-      <c r="G118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="1" t="n">
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="1">
         <v>117</v>
       </c>
-      <c r="B119" t="n">
+      <c r="B119">
         <v>-40.74170347306057</v>
       </c>
-      <c r="C119" t="n">
+      <c r="C119">
         <v>-3.402100678875321</v>
       </c>
-      <c r="D119" t="n">
+      <c r="D119">
         <v>-21.75983877375171</v>
       </c>
-      <c r="E119" t="inlineStr"/>
-      <c r="F119" t="inlineStr"/>
-      <c r="G119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="1" t="n">
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="1">
         <v>118</v>
       </c>
-      <c r="B120" t="n">
+      <c r="B120">
         <v>-40.29951425726962</v>
       </c>
-      <c r="C120" t="n">
+      <c r="C120">
         <v>-3.247457486575777</v>
       </c>
-      <c r="D120" t="n">
+      <c r="D120">
         <v>-21.43657589681546</v>
       </c>
-      <c r="E120" t="inlineStr"/>
-      <c r="F120" t="inlineStr"/>
-      <c r="G120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="1" t="n">
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="1">
         <v>119</v>
       </c>
-      <c r="B121" t="n">
+      <c r="B121">
         <v>-39.85295833337148</v>
       </c>
-      <c r="C121" t="n">
+      <c r="C121">
         <v>-3.091287161416766</v>
       </c>
-      <c r="D121" t="n">
+      <c r="D121">
         <v>-21.11012073346637</v>
       </c>
-      <c r="E121" t="inlineStr"/>
-      <c r="F121" t="inlineStr"/>
-      <c r="G121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="1" t="n">
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="1">
         <v>120</v>
       </c>
-      <c r="B122" t="n">
+      <c r="B122">
         <v>-39.40529716884091</v>
       </c>
-      <c r="C122" t="n">
+      <c r="C122">
         <v>-2.934730309554804</v>
       </c>
-      <c r="D122" t="n">
+      <c r="D122">
         <v>-20.78285758282635</v>
       </c>
-      <c r="E122" t="inlineStr"/>
-      <c r="F122" t="inlineStr"/>
-      <c r="G122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="1" t="n">
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="1">
         <v>121</v>
       </c>
-      <c r="B123" t="n">
+      <c r="B123">
         <v>-38.96062132901049</v>
       </c>
-      <c r="C123" t="n">
+      <c r="C123">
         <v>-2.779217490711285</v>
       </c>
-      <c r="D123" t="n">
+      <c r="D123">
         <v>-20.45777685685139</v>
       </c>
-      <c r="E123" t="inlineStr"/>
-      <c r="F123" t="inlineStr"/>
-      <c r="G123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="1" t="n">
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="1">
         <v>122</v>
       </c>
-      <c r="B124" t="n">
+      <c r="B124">
         <v>-38.53583787035524</v>
       </c>
-      <c r="C124" t="n">
+      <c r="C124">
         <v>-2.630661470490416</v>
       </c>
-      <c r="D124" t="n">
+      <c r="D124">
         <v>-20.14723847641122</v>
       </c>
-      <c r="E124" t="inlineStr"/>
-      <c r="F124" t="inlineStr"/>
-      <c r="G124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="1" t="n">
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="1">
         <v>123</v>
       </c>
-      <c r="B125" t="n">
+      <c r="B125">
         <v>-38.13846062303816</v>
       </c>
-      <c r="C125" t="n">
+      <c r="C125">
         <v>-2.491689998826639</v>
       </c>
-      <c r="D125" t="n">
+      <c r="D125">
         <v>-19.85673543470552</v>
       </c>
-      <c r="E125" t="inlineStr"/>
-      <c r="F125" t="inlineStr"/>
-      <c r="G125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="1" t="n">
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="1">
         <v>124</v>
       </c>
-      <c r="B126" t="n">
+      <c r="B126">
         <v>-37.77399429377986</v>
       </c>
-      <c r="C126" t="n">
+      <c r="C126">
         <v>-2.364228191461246</v>
       </c>
-      <c r="D126" t="n">
+      <c r="D126">
         <v>-19.59029195319345</v>
       </c>
-      <c r="E126" t="inlineStr"/>
-      <c r="F126" t="inlineStr"/>
-      <c r="G126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="1" t="n">
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="1">
         <v>125</v>
       </c>
-      <c r="B127" t="n">
+      <c r="B127">
         <v>-37.45549632039764</v>
       </c>
-      <c r="C127" t="n">
+      <c r="C127">
         <v>-2.252842518573089</v>
       </c>
-      <c r="D127" t="n">
+      <c r="D127">
         <v>-19.35745368510105</v>
       </c>
-      <c r="E127" t="inlineStr"/>
-      <c r="F127" t="inlineStr"/>
-      <c r="G127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="1" t="n">
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="1">
         <v>126</v>
       </c>
-      <c r="B128" t="n">
+      <c r="B128">
         <v>-37.18369489361033</v>
       </c>
-      <c r="C128" t="n">
+      <c r="C128">
         <v>-2.157787644304442</v>
       </c>
-      <c r="D128" t="n">
+      <c r="D128">
         <v>-19.15875297499558</v>
       </c>
-      <c r="E128" t="inlineStr"/>
-      <c r="F128" t="inlineStr"/>
-      <c r="G128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="1" t="n">
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="1">
         <v>127</v>
       </c>
-      <c r="B129" t="n">
+      <c r="B129">
         <v>-36.9562114430187</v>
       </c>
-      <c r="C129" t="n">
+      <c r="C129">
         <v>-2.078231730820932</v>
       </c>
-      <c r="D129" t="n">
+      <c r="D129">
         <v>-18.99245096656216</v>
       </c>
-      <c r="E129" t="inlineStr"/>
-      <c r="F129" t="inlineStr"/>
-      <c r="G129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="1" t="n">
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="1">
         <v>128</v>
       </c>
-      <c r="B130" t="n">
+      <c r="B130">
         <v>-36.77641760746636</v>
       </c>
-      <c r="C130" t="n">
+      <c r="C130">
         <v>-2.015353913604473</v>
       </c>
-      <c r="D130" t="n">
+      <c r="D130">
         <v>-18.86101249981418</v>
       </c>
-      <c r="E130" t="inlineStr"/>
-      <c r="F130" t="inlineStr"/>
-      <c r="G130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="1" t="n">
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="1">
         <v>129</v>
       </c>
-      <c r="B131" t="n">
+      <c r="B131">
         <v>-36.63847096341172</v>
       </c>
-      <c r="C131" t="n">
+      <c r="C131">
         <v>-1.96711096999161</v>
       </c>
-      <c r="D131" t="n">
+      <c r="D131">
         <v>-18.76016646506627</v>
       </c>
-      <c r="E131" t="inlineStr"/>
-      <c r="F131" t="inlineStr"/>
-      <c r="G131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="1" t="n">
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="1">
         <v>130</v>
       </c>
-      <c r="B132" t="n">
+      <c r="B132">
         <v>-36.53707785054525</v>
       </c>
-      <c r="C132" t="n">
+      <c r="C132">
         <v>-1.931651591764099</v>
       </c>
-      <c r="D132" t="n">
+      <c r="D132">
         <v>-18.68604292655323</v>
       </c>
-      <c r="E132" t="inlineStr"/>
-      <c r="F132" t="inlineStr"/>
-      <c r="G132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="1" t="n">
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="1">
         <v>131</v>
       </c>
-      <c r="B133" t="n">
+      <c r="B133">
         <v>-36.47329926933875</v>
       </c>
-      <c r="C133" t="n">
+      <c r="C133">
         <v>-1.909346833877892</v>
       </c>
-      <c r="D133" t="n">
+      <c r="D133">
         <v>-18.63941752975144</v>
       </c>
-      <c r="E133" t="inlineStr"/>
-      <c r="F133" t="inlineStr"/>
-      <c r="G133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="1" t="n">
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="1">
         <v>132</v>
       </c>
-      <c r="B134" t="n">
+      <c r="B134">
         <v>-36.44109333519094</v>
       </c>
-      <c r="C134" t="n">
+      <c r="C134">
         <v>-1.898083717796018</v>
       </c>
-      <c r="D134" t="n">
+      <c r="D134">
         <v>-18.61587334876453</v>
       </c>
-      <c r="E134" t="inlineStr"/>
-      <c r="F134" t="inlineStr"/>
-      <c r="G134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="1" t="n">
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="1">
         <v>133</v>
       </c>
-      <c r="B135" t="n">
+      <c r="B135">
         <v>-36.43769866185611</v>
       </c>
-      <c r="C135" t="n">
+      <c r="C135">
         <v>-1.896896526651217</v>
       </c>
-      <c r="D135" t="n">
+      <c r="D135">
         <v>-18.61339166936284</v>
       </c>
-      <c r="E135" t="inlineStr"/>
-      <c r="F135" t="inlineStr"/>
-      <c r="G135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="1" t="n">
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="1">
         <v>134</v>
       </c>
-      <c r="B136" t="n">
+      <c r="B136">
         <v>-36.4644658866204</v>
       </c>
-      <c r="C136" t="n">
+      <c r="C136">
         <v>-1.906257607696908</v>
       </c>
-      <c r="D136" t="n">
+      <c r="D136">
         <v>-18.63295987631114</v>
       </c>
-      <c r="E136" t="inlineStr"/>
-      <c r="F136" t="inlineStr"/>
-      <c r="G136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="1" t="n">
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="1">
         <v>135</v>
       </c>
-      <c r="B137" t="n">
+      <c r="B137">
         <v>-36.51700859227144</v>
       </c>
-      <c r="C137" t="n">
+      <c r="C137">
         <v>-1.924632935370604</v>
       </c>
-      <c r="D137" t="n">
+      <c r="D137">
         <v>-18.67137127483516</v>
       </c>
-      <c r="E137" t="inlineStr"/>
-      <c r="F137" t="inlineStr"/>
-      <c r="G137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="1" t="n">
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="1">
         <v>136</v>
       </c>
-      <c r="B138" t="n">
+      <c r="B138">
         <v>-36.59516579521555</v>
       </c>
-      <c r="C138" t="n">
+      <c r="C138">
         <v>-1.951966210206039</v>
       </c>
-      <c r="D138" t="n">
+      <c r="D138">
         <v>-18.72850817771464</v>
       </c>
-      <c r="E138" t="inlineStr"/>
-      <c r="F138" t="inlineStr"/>
-      <c r="G138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="1" t="n">
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="1">
         <v>137</v>
       </c>
-      <c r="B139" t="n">
+      <c r="B139">
         <v>-36.69994283116248</v>
       </c>
-      <c r="C139" t="n">
+      <c r="C139">
         <v>-1.988609019980436</v>
       </c>
-      <c r="D139" t="n">
+      <c r="D139">
         <v>-18.80510553664497</v>
       </c>
-      <c r="E139" t="inlineStr"/>
-      <c r="F139" t="inlineStr"/>
-      <c r="G139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="1" t="n">
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="1">
         <v>138</v>
       </c>
-      <c r="B140" t="n">
+      <c r="B140">
         <v>-36.82494485725859</v>
       </c>
-      <c r="C140" t="n">
+      <c r="C140">
         <v>-2.032324948974401</v>
       </c>
-      <c r="D140" t="n">
+      <c r="D140">
         <v>-18.89648839523959</v>
       </c>
-      <c r="E140" t="inlineStr"/>
-      <c r="F140" t="inlineStr"/>
-      <c r="G140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="1" t="n">
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="1">
         <v>139</v>
       </c>
-      <c r="B141" t="n">
+      <c r="B141">
         <v>-36.96753653558447</v>
       </c>
-      <c r="C141" t="n">
+      <c r="C141">
         <v>-2.082192362163617</v>
       </c>
-      <c r="D141" t="n">
+      <c r="D141">
         <v>-19.00073018702626</v>
       </c>
-      <c r="E141" t="inlineStr"/>
-      <c r="F141" t="inlineStr"/>
-      <c r="G141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="1" t="n">
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="1">
         <v>140</v>
       </c>
-      <c r="B142" t="n">
+      <c r="B142">
         <v>-37.12474940588981</v>
       </c>
-      <c r="C142" t="n">
+      <c r="C142">
         <v>-2.137173124394791</v>
       </c>
-      <c r="D142" t="n">
+      <c r="D142">
         <v>-19.11566081611318</v>
       </c>
-      <c r="E142" t="inlineStr"/>
-      <c r="F142" t="inlineStr"/>
-      <c r="G142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="1" t="n">
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="1">
         <v>141</v>
       </c>
-      <c r="B143" t="n">
+      <c r="B143">
         <v>-37.28591243827636</v>
       </c>
-      <c r="C143" t="n">
+      <c r="C143">
         <v>-2.193535344274693</v>
       </c>
-      <c r="D143" t="n">
+      <c r="D143">
         <v>-19.23347921521606</v>
       </c>
-      <c r="E143" t="inlineStr"/>
-      <c r="F143" t="inlineStr"/>
-      <c r="G143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="1" t="n">
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="1">
         <v>142</v>
       </c>
-      <c r="B144" t="n">
+      <c r="B144">
         <v>-37.44737557468166</v>
       </c>
-      <c r="C144" t="n">
+      <c r="C144">
         <v>-2.250002517061235</v>
       </c>
-      <c r="D144" t="n">
+      <c r="D144">
         <v>-19.35151700566775</v>
       </c>
-      <c r="E144" t="inlineStr"/>
-      <c r="F144" t="inlineStr"/>
-      <c r="G144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="1" t="n">
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="1">
         <v>143</v>
       </c>
-      <c r="B145" t="n">
+      <c r="B145">
         <v>-37.60661704352274</v>
       </c>
-      <c r="C145" t="n">
+      <c r="C145">
         <v>-2.305692724349544</v>
       </c>
-      <c r="D145" t="n">
+      <c r="D145">
         <v>-19.46793064378202</v>
       </c>
-      <c r="E145" t="inlineStr"/>
-      <c r="F145" t="inlineStr"/>
-      <c r="G145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="1" t="n">
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="1">
         <v>144</v>
       </c>
-      <c r="B146" t="n">
+      <c r="B146">
         <v>-37.75632901540011</v>
       </c>
-      <c r="C146" t="n">
+      <c r="C146">
         <v>-2.358050259155465</v>
       </c>
-      <c r="D146" t="n">
+      <c r="D146">
         <v>-19.57737773342737</v>
       </c>
-      <c r="E146" t="inlineStr"/>
-      <c r="F146" t="inlineStr"/>
-      <c r="G146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="1" t="n">
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="1">
         <v>145</v>
       </c>
-      <c r="B147" t="n">
+      <c r="B147">
         <v>-37.89769351676733</v>
       </c>
-      <c r="C147" t="n">
+      <c r="C147">
         <v>-2.407488501854703</v>
       </c>
-      <c r="D147" t="n">
+      <c r="D147">
         <v>-19.68072239624752</v>
       </c>
-      <c r="E147" t="inlineStr"/>
-      <c r="F147" t="inlineStr"/>
-      <c r="G147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="1" t="n">
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="1">
         <v>146</v>
       </c>
-      <c r="B148" t="n">
+      <c r="B148">
         <v>-38.03297627115452</v>
       </c>
-      <c r="C148" t="n">
+      <c r="C148">
         <v>-2.454799825275585</v>
       </c>
-      <c r="D148" t="n">
+      <c r="D148">
         <v>-19.77962099173869</v>
       </c>
-      <c r="E148" t="inlineStr"/>
-      <c r="F148" t="inlineStr"/>
-      <c r="G148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="1" t="n">
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="1">
         <v>147</v>
       </c>
-      <c r="B149" t="n">
+      <c r="B149">
         <v>-38.16041995820926</v>
       </c>
-      <c r="C149" t="n">
+      <c r="C149">
         <v>-2.499369656245604</v>
       </c>
-      <c r="D149" t="n">
+      <c r="D149">
         <v>-19.87278882906595</v>
       </c>
-      <c r="E149" t="inlineStr"/>
-      <c r="F149" t="inlineStr"/>
-      <c r="G149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="1" t="n">
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="1">
         <v>148</v>
       </c>
-      <c r="B150" t="n">
+      <c r="B150">
         <v>-38.28327235416845</v>
       </c>
-      <c r="C150" t="n">
+      <c r="C150">
         <v>-2.542333812797439</v>
       </c>
-      <c r="D150" t="n">
+      <c r="D150">
         <v>-19.9626001983578</v>
       </c>
-      <c r="E150" t="inlineStr"/>
-      <c r="F150" t="inlineStr"/>
-      <c r="G150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="1" t="n">
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="1">
         <v>149</v>
       </c>
-      <c r="B151" t="n">
+      <c r="B151">
         <v>-38.40497746787453</v>
       </c>
-      <c r="C151" t="n">
+      <c r="C151">
         <v>-2.584896739776614</v>
       </c>
-      <c r="D151" t="n">
+      <c r="D151">
         <v>-20.05157284578908</v>
       </c>
-      <c r="E151" t="inlineStr"/>
-      <c r="F151" t="inlineStr"/>
-      <c r="G151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="1" t="n">
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="1">
         <v>150</v>
       </c>
-      <c r="B152" t="n">
+      <c r="B152">
         <v>-38.52435600712431</v>
       </c>
-      <c r="C152" t="n">
+      <c r="C152">
         <v>-2.626646013034264</v>
       </c>
-      <c r="D152" t="n">
+      <c r="D152">
         <v>-20.13884464859256</v>
       </c>
-      <c r="E152" t="inlineStr"/>
-      <c r="F152" t="inlineStr"/>
-      <c r="G152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="1" t="n">
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="1">
         <v>151</v>
       </c>
-      <c r="B153" t="n">
+      <c r="B153">
         <v>-38.64266830553452</v>
       </c>
-      <c r="C153" t="n">
+      <c r="C153">
         <v>-2.668022398665299</v>
       </c>
-      <c r="D153" t="n">
+      <c r="D153">
         <v>-20.22533697494342</v>
       </c>
-      <c r="E153" t="inlineStr"/>
-      <c r="F153" t="inlineStr"/>
-      <c r="G153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="1" t="n">
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="1">
         <v>152</v>
       </c>
-      <c r="B154" t="n">
+      <c r="B154">
         <v>-38.76054258399235</v>
       </c>
-      <c r="C154" t="n">
+      <c r="C154">
         <v>-2.709245599186185</v>
       </c>
-      <c r="D154" t="n">
+      <c r="D154">
         <v>-20.31150908636162</v>
       </c>
-      <c r="E154" t="inlineStr"/>
-      <c r="F154" t="inlineStr"/>
-      <c r="G154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="1" t="n">
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="1">
         <v>153</v>
       </c>
-      <c r="B155" t="n">
+      <c r="B155">
         <v>-38.87538603180703</v>
       </c>
-      <c r="C155" t="n">
+      <c r="C155">
         <v>-2.749408852270009</v>
       </c>
-      <c r="D155" t="n">
+      <c r="D155">
         <v>-20.39546550594876</v>
       </c>
-      <c r="E155" t="inlineStr"/>
-      <c r="F155" t="inlineStr"/>
-      <c r="G155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="1" t="n">
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="1">
         <v>154</v>
       </c>
-      <c r="B156" t="n">
+      <c r="B156">
         <v>-38.98542044856129</v>
       </c>
-      <c r="C156" t="n">
+      <c r="C156">
         <v>-2.787890282531169</v>
       </c>
-      <c r="D156" t="n">
+      <c r="D156">
         <v>-20.47590627847723</v>
       </c>
-      <c r="E156" t="inlineStr"/>
-      <c r="F156" t="inlineStr"/>
-      <c r="G156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="1" t="n">
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="1">
         <v>155</v>
       </c>
-      <c r="B157" t="n">
+      <c r="B157">
         <v>-39.09069616000281</v>
       </c>
-      <c r="C157" t="n">
+      <c r="C157">
         <v>-2.824707489978897</v>
       </c>
-      <c r="D157" t="n">
+      <c r="D157">
         <v>-20.55286819463619</v>
       </c>
-      <c r="E157" t="inlineStr"/>
-      <c r="F157" t="inlineStr"/>
-      <c r="G157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="1" t="n">
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="1">
         <v>156</v>
       </c>
-      <c r="B158" t="n">
+      <c r="B158">
         <v>-39.19068492491824</v>
       </c>
-      <c r="C158" t="n">
+      <c r="C158">
         <v>-2.859675737164555</v>
       </c>
-      <c r="D158" t="n">
+      <c r="D158">
         <v>-20.62596508314815</v>
       </c>
-      <c r="E158" t="inlineStr"/>
-      <c r="F158" t="inlineStr"/>
-      <c r="G158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="1" t="n">
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="1">
         <v>157</v>
       </c>
-      <c r="B159" t="n">
+      <c r="B159">
         <v>-39.28501406593931</v>
       </c>
-      <c r="C159" t="n">
+      <c r="C159">
         <v>-2.892664690701741</v>
       </c>
-      <c r="D159" t="n">
+      <c r="D159">
         <v>-20.69492449784318</v>
       </c>
-      <c r="E159" t="inlineStr"/>
-      <c r="F159" t="inlineStr"/>
-      <c r="G159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="1" t="n">
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="1">
         <v>158</v>
       </c>
-      <c r="B160" t="n">
+      <c r="B160">
         <v>-39.37530253060844</v>
       </c>
-      <c r="C160" t="n">
+      <c r="C160">
         <v>-2.924240531779828</v>
       </c>
-      <c r="D160" t="n">
+      <c r="D160">
         <v>-20.76092997197238</v>
       </c>
-      <c r="E160" t="inlineStr"/>
-      <c r="F160" t="inlineStr"/>
-      <c r="G160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="1" t="n">
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="1">
         <v>159</v>
       </c>
-      <c r="B161" t="n">
+      <c r="B161">
         <v>-39.46461182745609</v>
       </c>
-      <c r="C161" t="n">
+      <c r="C161">
         <v>-2.95547393656073</v>
       </c>
-      <c r="D161" t="n">
+      <c r="D161">
         <v>-20.8262196244676</v>
       </c>
-      <c r="E161" t="inlineStr"/>
-      <c r="F161" t="inlineStr"/>
-      <c r="G161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="1" t="n">
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="1">
         <v>160</v>
       </c>
-      <c r="B162" t="n">
+      <c r="B162">
         <v>-39.55485859168372</v>
       </c>
-      <c r="C162" t="n">
+      <c r="C162">
         <v>-2.987035194086881</v>
       </c>
-      <c r="D162" t="n">
+      <c r="D162">
         <v>-20.89219461344653</v>
       </c>
-      <c r="E162" t="inlineStr"/>
-      <c r="F162" t="inlineStr"/>
-      <c r="G162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="1" t="n">
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="1">
         <v>161</v>
       </c>
-      <c r="B163" t="n">
+      <c r="B163">
         <v>-39.65016513811578</v>
       </c>
-      <c r="C163" t="n">
+      <c r="C163">
         <v>-3.020365967567948</v>
       </c>
-      <c r="D163" t="n">
+      <c r="D163">
         <v>-20.96186856136355</v>
       </c>
-      <c r="E163" t="inlineStr"/>
-      <c r="F163" t="inlineStr"/>
-      <c r="G163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="1" t="n">
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="1">
         <v>162</v>
       </c>
-      <c r="B164" t="n">
+      <c r="B164">
         <v>-39.75701639639915</v>
       </c>
-      <c r="C164" t="n">
+      <c r="C164">
         <v>-3.057734178035513</v>
       </c>
-      <c r="D164" t="n">
+      <c r="D164">
         <v>-21.03998228264722</v>
       </c>
-      <c r="E164" t="inlineStr"/>
-      <c r="F164" t="inlineStr"/>
-      <c r="G164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="1" t="n">
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="1">
         <v>163</v>
       </c>
-      <c r="B165" t="n">
+      <c r="B165">
         <v>-39.87704911659944</v>
       </c>
-      <c r="C165" t="n">
+      <c r="C165">
         <v>-3.099712232608755</v>
       </c>
-      <c r="D165" t="n">
+      <c r="D165">
         <v>-21.12773232510139</v>
       </c>
-      <c r="E165" t="inlineStr"/>
-      <c r="F165" t="inlineStr"/>
-      <c r="G165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="1" t="n">
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="1">
         <v>164</v>
       </c>
-      <c r="B166" t="n">
+      <c r="B166">
         <v>-40.01388594322391</v>
       </c>
-      <c r="C166" t="n">
+      <c r="C166">
         <v>-3.14756704891289</v>
       </c>
-      <c r="D166" t="n">
+      <c r="D166">
         <v>-21.22776702668571</v>
       </c>
-      <c r="E166" t="inlineStr"/>
-      <c r="F166" t="inlineStr"/>
-      <c r="G166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="1" t="n">
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="1">
         <v>165</v>
       </c>
-      <c r="B167" t="n">
+      <c r="B167">
         <v>-40.17257078889454</v>
       </c>
-      <c r="C167" t="n">
+      <c r="C167">
         <v>-3.203062592964487</v>
       </c>
-      <c r="D167" t="n">
+      <c r="D167">
         <v>-21.34377374486385</v>
       </c>
-      <c r="E167" t="inlineStr"/>
-      <c r="F167" t="inlineStr"/>
-      <c r="G167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="1" t="n">
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="1">
         <v>166</v>
       </c>
-      <c r="B168" t="n">
+      <c r="B168">
         <v>-40.35000886050713</v>
       </c>
-      <c r="C168" t="n">
+      <c r="C168">
         <v>-3.265116548261802</v>
       </c>
-      <c r="D168" t="n">
+      <c r="D168">
         <v>-21.4734900279824</v>
       </c>
-      <c r="E168" t="inlineStr"/>
-      <c r="F168" t="inlineStr"/>
-      <c r="G168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="1" t="n">
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="1">
         <v>167</v>
       </c>
-      <c r="B169" t="n">
+      <c r="B169">
         <v>-40.54647760249433</v>
       </c>
-      <c r="C169" t="n">
+      <c r="C169">
         <v>-3.333825943161067</v>
       </c>
-      <c r="D169" t="n">
+      <c r="D169">
         <v>-21.61711870207665</v>
       </c>
-      <c r="E169" t="inlineStr"/>
-      <c r="F169" t="inlineStr"/>
-      <c r="G169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="1" t="n">
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="1">
         <v>168</v>
       </c>
-      <c r="B170" t="n">
+      <c r="B170">
         <v>-40.764194122828</v>
       </c>
-      <c r="C170" t="n">
+      <c r="C170">
         <v>-3.409966148571828</v>
       </c>
-      <c r="D170" t="n">
+      <c r="D170">
         <v>-21.77628058618935</v>
       </c>
-      <c r="E170" t="inlineStr"/>
-      <c r="F170" t="inlineStr"/>
-      <c r="G170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="1" t="n">
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="1">
         <v>169</v>
       </c>
-      <c r="B171" t="n">
+      <c r="B171">
         <v>-40.99742164736245</v>
       </c>
-      <c r="C171" t="n">
+      <c r="C171">
         <v>-3.491530889723679</v>
       </c>
-      <c r="D171" t="n">
+      <c r="D171">
         <v>-21.94678180573373</v>
       </c>
-      <c r="E171" t="inlineStr"/>
-      <c r="F171" t="inlineStr"/>
-      <c r="G171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="1" t="n">
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="1">
         <v>170</v>
       </c>
-      <c r="B172" t="n">
+      <c r="B172">
         <v>-41.24611134836562</v>
       </c>
-      <c r="C172" t="n">
+      <c r="C172">
         <v>-3.578503090496055</v>
       </c>
-      <c r="D172" t="n">
+      <c r="D172">
         <v>-22.12858666514647</v>
       </c>
-      <c r="E172" t="inlineStr"/>
-      <c r="F172" t="inlineStr"/>
-      <c r="G172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="1" t="n">
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="1">
         <v>171</v>
       </c>
-      <c r="B173" t="n">
+      <c r="B173">
         <v>-41.51247036830895</v>
       </c>
-      <c r="C173" t="n">
+      <c r="C173">
         <v>-3.671654636646125</v>
       </c>
-      <c r="D173" t="n">
+      <c r="D173">
         <v>-22.32330869818109</v>
       </c>
-      <c r="E173" t="inlineStr"/>
-      <c r="F173" t="inlineStr"/>
-      <c r="G173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="1" t="n">
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="1">
         <v>172</v>
       </c>
-      <c r="B174" t="n">
+      <c r="B174">
         <v>-41.78972482963133</v>
       </c>
-      <c r="C174" t="n">
+      <c r="C174">
         <v>-3.768616555768214</v>
       </c>
-      <c r="D174" t="n">
+      <c r="D174">
         <v>-22.5259958547418</v>
       </c>
-      <c r="E174" t="inlineStr"/>
-      <c r="F174" t="inlineStr"/>
-      <c r="G174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="1" t="n">
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="1">
         <v>173</v>
       </c>
-      <c r="B175" t="n">
+      <c r="B175">
         <v>-42.07827599847435</v>
       </c>
-      <c r="C175" t="n">
+      <c r="C175">
         <v>-3.869529179364956</v>
       </c>
-      <c r="D175" t="n">
+      <c r="D175">
         <v>-22.73694148085045</v>
       </c>
-      <c r="E175" t="inlineStr"/>
-      <c r="F175" t="inlineStr"/>
-      <c r="G175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="1" t="n">
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="1">
         <v>174</v>
       </c>
-      <c r="B176" t="n">
+      <c r="B176">
         <v>-42.38049752695063</v>
       </c>
-      <c r="C176" t="n">
+      <c r="C176">
         <v>-3.975222625238847</v>
       </c>
-      <c r="D176" t="n">
+      <c r="D176">
         <v>-22.95788083730346</v>
       </c>
-      <c r="E176" t="inlineStr"/>
-      <c r="F176" t="inlineStr"/>
-      <c r="G176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="1">
         <v>175</v>
       </c>
-      <c r="B177" t="n">
+      <c r="B177">
         <v>-42.68763129572869</v>
       </c>
-      <c r="C177" t="n">
+      <c r="C177">
         <v>-4.082633988453289</v>
       </c>
-      <c r="D177" t="n">
+      <c r="D177">
         <v>-23.18241129203624</v>
       </c>
-      <c r="E177" t="inlineStr"/>
-      <c r="F177" t="inlineStr"/>
-      <c r="G177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="1">
         <v>176</v>
       </c>
-      <c r="B178" t="n">
+      <c r="B178">
         <v>-43.00055509730445</v>
       </c>
-      <c r="C178" t="n">
+      <c r="C178">
         <v>-4.192070252147838</v>
       </c>
-      <c r="D178" t="n">
+      <c r="D178">
         <v>-23.41117455614766</v>
       </c>
-      <c r="E178" t="inlineStr"/>
-      <c r="F178" t="inlineStr"/>
-      <c r="G178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="1">
         <v>177</v>
       </c>
-      <c r="B179" t="n">
+      <c r="B179">
         <v>-43.32137591416565</v>
       </c>
-      <c r="C179" t="n">
+      <c r="C179">
         <v>-4.30426827395355</v>
       </c>
-      <c r="D179" t="n">
+      <c r="D179">
         <v>-23.64571094133309</v>
       </c>
-      <c r="E179" t="inlineStr"/>
-      <c r="F179" t="inlineStr"/>
-      <c r="G179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="1">
         <v>178</v>
       </c>
-      <c r="B180" t="n">
+      <c r="B180">
         <v>-43.64040801967028</v>
       </c>
-      <c r="C180" t="n">
+      <c r="C180">
         <v>-4.415840744469441</v>
       </c>
-      <c r="D180" t="n">
+      <c r="D180">
         <v>-23.87893968725803</v>
       </c>
-      <c r="E180" t="inlineStr"/>
-      <c r="F180" t="inlineStr"/>
-      <c r="G180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="1">
         <v>179</v>
       </c>
-      <c r="B181" t="n">
+      <c r="B181">
         <v>-43.95903109896699</v>
       </c>
-      <c r="C181" t="n">
+      <c r="C181">
         <v>-4.527270169618625</v>
       </c>
-      <c r="D181" t="n">
+      <c r="D181">
         <v>-24.11186941415674</v>
       </c>
-      <c r="E181" t="inlineStr"/>
-      <c r="F181" t="inlineStr"/>
-      <c r="G181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="1">
         <v>180</v>
       </c>
-      <c r="B182" t="n">
+      <c r="B182">
         <v>-44.28043542478292</v>
       </c>
-      <c r="C182" t="n">
+      <c r="C182">
         <v>-4.639672257204944</v>
       </c>
-      <c r="D182" t="n">
+      <c r="D182">
         <v>-24.34683237415831</v>
       </c>
-      <c r="E182" t="inlineStr"/>
-      <c r="F182" t="inlineStr"/>
-      <c r="G182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="1">
         <v>181</v>
       </c>
-      <c r="B183" t="n">
+      <c r="B183">
         <v>-44.59542709586268</v>
       </c>
-      <c r="C183" t="n">
+      <c r="C183">
         <v>-4.749831699868893</v>
       </c>
-      <c r="D183" t="n">
+      <c r="D183">
         <v>-24.57710735637845</v>
       </c>
-      <c r="E183" t="inlineStr"/>
-      <c r="F183" t="inlineStr"/>
-      <c r="G183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="1">
         <v>182</v>
       </c>
-      <c r="B184" t="n">
+      <c r="B184">
         <v>-44.9092187061861</v>
       </c>
-      <c r="C184" t="n">
+      <c r="C184">
         <v>-4.859571455168965</v>
       </c>
-      <c r="D184" t="n">
+      <c r="D184">
         <v>-24.80650503295943</v>
       </c>
-      <c r="E184" t="inlineStr"/>
-      <c r="F184" t="inlineStr"/>
-      <c r="G184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="1">
         <v>183</v>
       </c>
-      <c r="B185" t="n">
+      <c r="B185">
         <v>-45.22960874735136</v>
       </c>
-      <c r="C185" t="n">
+      <c r="C185">
         <v>-4.971618825338668</v>
       </c>
-      <c r="D185" t="n">
+      <c r="D185">
         <v>-25.04072649913325</v>
       </c>
-      <c r="E185" t="inlineStr"/>
-      <c r="F185" t="inlineStr"/>
-      <c r="G185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="1">
         <v>184</v>
       </c>
-      <c r="B186" t="n">
+      <c r="B186">
         <v>-45.55030454952376</v>
       </c>
-      <c r="C186" t="n">
+      <c r="C186">
         <v>-5.08377312678696</v>
       </c>
-      <c r="D186" t="n">
+      <c r="D186">
         <v>-25.275171492203</v>
       </c>
-      <c r="E186" t="inlineStr"/>
-      <c r="F186" t="inlineStr"/>
-      <c r="G186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="1">
         <v>185</v>
       </c>
-      <c r="B187" t="n">
+      <c r="B187">
         <v>-45.88039951871712</v>
       </c>
-      <c r="C187" t="n">
+      <c r="C187">
         <v>-5.199214521500247</v>
       </c>
-      <c r="D187" t="n">
+      <c r="D187">
         <v>-25.51648775590418</v>
       </c>
-      <c r="E187" t="inlineStr"/>
-      <c r="F187" t="inlineStr"/>
-      <c r="G187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="1">
         <v>186</v>
       </c>
-      <c r="B188" t="n">
+      <c r="B188">
         <v>-46.22892259437917</v>
       </c>
-      <c r="C188" t="n">
+      <c r="C188">
         <v>-5.321100626103746</v>
       </c>
-      <c r="D188" t="n">
+      <c r="D188">
         <v>-25.77127590562344</v>
       </c>
-      <c r="E188" t="inlineStr"/>
-      <c r="F188" t="inlineStr"/>
-      <c r="G188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="1">
         <v>187</v>
       </c>
-      <c r="B189" t="n">
+      <c r="B189">
         <v>-46.5864938262729</v>
       </c>
-      <c r="C189" t="n">
+      <c r="C189">
         <v>-5.446151067860039</v>
       </c>
-      <c r="D189" t="n">
+      <c r="D189">
         <v>-26.03267871917883</v>
       </c>
-      <c r="E189" t="inlineStr"/>
-      <c r="F189" t="inlineStr"/>
-      <c r="G189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="1">
         <v>188</v>
       </c>
-      <c r="B190" t="n">
+      <c r="B190">
         <v>-46.95836144875037</v>
       </c>
-      <c r="C190" t="n">
+      <c r="C190">
         <v>-5.576201268541426</v>
       </c>
-      <c r="D190" t="n">
+      <c r="D190">
         <v>-26.30453292364306</v>
       </c>
-      <c r="E190" t="inlineStr"/>
-      <c r="F190" t="inlineStr"/>
-      <c r="G190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="1">
         <v>189</v>
       </c>
-      <c r="B191" t="n">
+      <c r="B191">
         <v>-47.3485026263792</v>
       </c>
-      <c r="C191" t="n">
+      <c r="C191">
         <v>-5.712642129153796</v>
       </c>
-      <c r="D191" t="n">
+      <c r="D191">
         <v>-26.58974602922729</v>
       </c>
-      <c r="E191" t="inlineStr"/>
-      <c r="F191" t="inlineStr"/>
-      <c r="G191" t="inlineStr"/>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="1">
         <v>190</v>
       </c>
-      <c r="B192" t="n">
+      <c r="B192">
         <v>-47.74148731835026</v>
       </c>
-      <c r="C192" t="n">
+      <c r="C192">
         <v>-5.850077428616161</v>
       </c>
-      <c r="D192" t="n">
+      <c r="D192">
         <v>-26.87703788886986</v>
       </c>
-      <c r="E192" t="inlineStr"/>
-      <c r="F192" t="inlineStr"/>
-      <c r="G192" t="inlineStr"/>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="1">
         <v>191</v>
       </c>
-      <c r="B193" t="n">
+      <c r="B193">
         <v>-48.13881170535537</v>
       </c>
-      <c r="C193" t="n">
+      <c r="C193">
         <v>-5.989030413878421</v>
       </c>
-      <c r="D193" t="n">
+      <c r="D193">
         <v>-27.16750228699061</v>
       </c>
-      <c r="E193" t="inlineStr"/>
-      <c r="F193" t="inlineStr"/>
-      <c r="G193" t="inlineStr"/>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="1">
         <v>192</v>
       </c>
-      <c r="B194" t="n">
+      <c r="B194">
         <v>-48.54053438157161</v>
       </c>
-      <c r="C194" t="n">
+      <c r="C194">
         <v>-6.129521576599507</v>
       </c>
-      <c r="D194" t="n">
+      <c r="D194">
         <v>-27.46118205892242</v>
       </c>
-      <c r="E194" t="inlineStr"/>
-      <c r="F194" t="inlineStr"/>
-      <c r="G194" t="inlineStr"/>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="1">
         <v>193</v>
       </c>
-      <c r="B195" t="n">
+      <c r="B195">
         <v>-48.92849121258941</v>
       </c>
-      <c r="C195" t="n">
+      <c r="C195">
         <v>-6.265198523663205</v>
       </c>
-      <c r="D195" t="n">
+      <c r="D195">
         <v>-27.7447982956901</v>
       </c>
-      <c r="E195" t="inlineStr"/>
-      <c r="F195" t="inlineStr"/>
-      <c r="G195" t="inlineStr"/>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="1">
         <v>194</v>
       </c>
-      <c r="B196" t="n">
+      <c r="B196">
         <v>-49.30208590685379</v>
       </c>
-      <c r="C196" t="n">
+      <c r="C196">
         <v>-6.395852718935418</v>
       </c>
-      <c r="D196" t="n">
+      <c r="D196">
         <v>-28.0179150777446</v>
       </c>
-      <c r="E196" t="inlineStr"/>
-      <c r="F196" t="inlineStr"/>
-      <c r="G196" t="inlineStr"/>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="1">
         <v>195</v>
       </c>
-      <c r="B197" t="n">
+      <c r="B197">
         <v>-49.65807594798485</v>
       </c>
-      <c r="C197" t="n">
+      <c r="C197">
         <v>-6.52035018386993</v>
       </c>
-      <c r="D197" t="n">
+      <c r="D197">
         <v>-28.2781619601812</v>
       </c>
-      <c r="E197" t="inlineStr"/>
-      <c r="F197" t="inlineStr"/>
-      <c r="G197" t="inlineStr"/>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="1">
         <v>196</v>
       </c>
-      <c r="B198" t="n">
+      <c r="B198">
         <v>-49.97968718101439</v>
       </c>
-      <c r="C198" t="n">
+      <c r="C198">
         <v>-6.632824631411849</v>
       </c>
-      <c r="D198" t="n">
+      <c r="D198">
         <v>-28.51327617991218</v>
       </c>
-      <c r="E198" t="inlineStr"/>
-      <c r="F198" t="inlineStr"/>
-      <c r="G198" t="inlineStr"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="1">
         <v>197</v>
       </c>
-      <c r="B199" t="n">
+      <c r="B199">
         <v>-50.26090394909367</v>
       </c>
-      <c r="C199" t="n">
+      <c r="C199">
         <v>-6.731172255440064</v>
       </c>
-      <c r="D199" t="n">
+      <c r="D199">
         <v>-28.71885998486639</v>
       </c>
-      <c r="E199" t="inlineStr"/>
-      <c r="F199" t="inlineStr"/>
-      <c r="G199" t="inlineStr"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="1">
         <v>198</v>
       </c>
-      <c r="B200" t="n">
+      <c r="B200">
         <v>-50.49979378539792</v>
       </c>
-      <c r="C200" t="n">
+      <c r="C200">
         <v>-6.814717230248927</v>
       </c>
-      <c r="D200" t="n">
+      <c r="D200">
         <v>-28.89350064320179</v>
       </c>
-      <c r="E200" t="inlineStr"/>
-      <c r="F200" t="inlineStr"/>
-      <c r="G200" t="inlineStr"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="1">
         <v>199</v>
       </c>
-      <c r="B201" t="n">
+      <c r="B201">
         <v>-50.68098254148883</v>
       </c>
-      <c r="C201" t="n">
+      <c r="C201">
         <v>-6.878082881535929</v>
       </c>
-      <c r="D201" t="n">
+      <c r="D201">
         <v>-29.02595886803135</v>
       </c>
-      <c r="E201" t="inlineStr"/>
-      <c r="F201" t="inlineStr"/>
-      <c r="G201" t="inlineStr"/>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="1">
         <v>200</v>
       </c>
-      <c r="B202" t="n">
+      <c r="B202">
         <v>-50.80907185098589</v>
       </c>
-      <c r="C202" t="n">
+      <c r="C202">
         <v>-6.922878500724966</v>
       </c>
-      <c r="D202" t="n">
+      <c r="D202">
         <v>-29.11959868830317</v>
       </c>
-      <c r="E202" t="inlineStr"/>
-      <c r="F202" t="inlineStr"/>
-      <c r="G202" t="inlineStr"/>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="1">
         <v>201</v>
       </c>
-      <c r="B203" t="n">
+      <c r="B203">
         <v>-50.88236823029402</v>
       </c>
-      <c r="C203" t="n">
+      <c r="C203">
         <v>-6.948511839746885</v>
       </c>
-      <c r="D203" t="n">
+      <c r="D203">
         <v>-29.17318208110883</v>
       </c>
-      <c r="E203" t="inlineStr"/>
-      <c r="F203" t="inlineStr"/>
-      <c r="G203" t="inlineStr"/>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="1">
         <v>202</v>
       </c>
-      <c r="B204" t="n">
+      <c r="B204">
         <v>-15.62241542747662</v>
       </c>
-      <c r="C204" t="n">
+      <c r="C204">
         <v>5.382661031589715</v>
       </c>
-      <c r="D204" t="n">
+      <c r="D204">
         <v>-3.396357643436828</v>
       </c>
-      <c r="E204" t="inlineStr"/>
-      <c r="F204" t="inlineStr"/>
-      <c r="G204" t="inlineStr"/>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="1">
         <v>203</v>
       </c>
-      <c r="B205" t="n">
+      <c r="B205">
         <v>-15.14363435955959</v>
       </c>
-      <c r="C205" t="n">
+      <c r="C205">
         <v>5.550101190940588</v>
       </c>
-      <c r="D205" t="n">
+      <c r="D205">
         <v>-3.046344255705005</v>
       </c>
-      <c r="E205" t="inlineStr"/>
-      <c r="F205" t="inlineStr"/>
-      <c r="G205" t="inlineStr"/>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="1">
         <v>204</v>
       </c>
-      <c r="B206" t="n">
+      <c r="B206">
         <v>-14.72861192166134</v>
       </c>
-      <c r="C206" t="n">
+      <c r="C206">
         <v>5.695243569769805</v>
       </c>
-      <c r="D206" t="n">
+      <c r="D206">
         <v>-2.742941679438852</v>
       </c>
-      <c r="E206" t="inlineStr"/>
-      <c r="F206" t="inlineStr"/>
-      <c r="G206" t="inlineStr"/>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="1">
         <v>205</v>
       </c>
-      <c r="B207" t="n">
+      <c r="B207">
         <v>-14.41524385559606</v>
       </c>
-      <c r="C207" t="n">
+      <c r="C207">
         <v>5.804835202425044</v>
       </c>
-      <c r="D207" t="n">
+      <c r="D207">
         <v>-2.513853635319517</v>
       </c>
-      <c r="E207" t="inlineStr"/>
-      <c r="F207" t="inlineStr"/>
-      <c r="G207" t="inlineStr"/>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="1">
         <v>206</v>
       </c>
-      <c r="B208" t="n">
+      <c r="B208">
         <v>-14.17476374667635</v>
       </c>
-      <c r="C208" t="n">
+      <c r="C208">
         <v>5.888936330177256</v>
       </c>
-      <c r="D208" t="n">
+      <c r="D208">
         <v>-2.338050406567599</v>
       </c>
-      <c r="E208" t="inlineStr"/>
-      <c r="F208" t="inlineStr"/>
-      <c r="G208" t="inlineStr"/>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
+    </row>
+    <row r="209" spans="1:4">
+      <c r="A209" s="1">
         <v>207</v>
       </c>
-      <c r="B209" t="n">
+      <c r="B209">
         <v>-13.98673659601767</v>
       </c>
-      <c r="C209" t="n">
+      <c r="C209">
         <v>5.954693516871274</v>
       </c>
-      <c r="D209" t="n">
+      <c r="D209">
         <v>-2.200592966418745</v>
       </c>
-      <c r="E209" t="inlineStr"/>
-      <c r="F209" t="inlineStr"/>
-      <c r="G209" t="inlineStr"/>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
+    </row>
+    <row r="210" spans="1:4">
+      <c r="A210" s="1">
         <v>208</v>
       </c>
-      <c r="B210" t="n">
+      <c r="B210">
         <v>-13.82264174413773</v>
       </c>
-      <c r="C210" t="n">
+      <c r="C210">
         <v>6.012081057834353</v>
       </c>
-      <c r="D210" t="n">
+      <c r="D210">
         <v>-2.080631257686765</v>
       </c>
-      <c r="E210" t="inlineStr"/>
-      <c r="F210" t="inlineStr"/>
-      <c r="G210" t="inlineStr"/>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
+    </row>
+    <row r="211" spans="1:4">
+      <c r="A211" s="1">
         <v>209</v>
       </c>
-      <c r="B211" t="n">
+      <c r="B211">
         <v>-13.65177251294087</v>
       </c>
-      <c r="C211" t="n">
+      <c r="C211">
         <v>6.071837746678034</v>
       </c>
-      <c r="D211" t="n">
+      <c r="D211">
         <v>-1.955717132049891</v>
       </c>
-      <c r="E211" t="inlineStr"/>
-      <c r="F211" t="inlineStr"/>
-      <c r="G211" t="inlineStr"/>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
+    </row>
+    <row r="212" spans="1:4">
+      <c r="A212" s="1">
         <v>210</v>
       </c>
-      <c r="B212" t="n">
+      <c r="B212">
         <v>-13.43869279544886</v>
       </c>
-      <c r="C212" t="n">
+      <c r="C212">
         <v>6.14635636122251</v>
       </c>
-      <c r="D212" t="n">
+      <c r="D212">
         <v>-1.799944987380954</v>
       </c>
-      <c r="E212" t="inlineStr"/>
-      <c r="F212" t="inlineStr"/>
-      <c r="G212" t="inlineStr"/>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
+    </row>
+    <row r="213" spans="1:4">
+      <c r="A213" s="1">
         <v>211</v>
       </c>
-      <c r="B213" t="n">
+      <c r="B213">
         <v>-13.1640478165267</v>
       </c>
-      <c r="C213" t="n">
+      <c r="C213">
         <v>6.242405687558055</v>
       </c>
-      <c r="D213" t="n">
+      <c r="D213">
         <v>-1.599165495588812</v>
       </c>
-      <c r="E213" t="inlineStr"/>
-      <c r="F213" t="inlineStr"/>
-      <c r="G213" t="inlineStr"/>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
+    </row>
+    <row r="214" spans="1:4">
+      <c r="A214" s="1">
         <v>212</v>
       </c>
-      <c r="B214" t="n">
+      <c r="B214">
         <v>-12.80940004681151</v>
       </c>
-      <c r="C214" t="n">
+      <c r="C214">
         <v>6.366433730966059</v>
       </c>
-      <c r="D214" t="n">
+      <c r="D214">
         <v>-1.339899882038983</v>
       </c>
-      <c r="E214" t="inlineStr"/>
-      <c r="F214" t="inlineStr"/>
-      <c r="G214" t="inlineStr"/>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
+    </row>
+    <row r="215" spans="1:4">
+      <c r="A215" s="1">
         <v>213</v>
       </c>
-      <c r="B215" t="n">
+      <c r="B215">
         <v>-12.36424282510278</v>
       </c>
-      <c r="C215" t="n">
+      <c r="C215">
         <v>6.522114899528931</v>
       </c>
-      <c r="D215" t="n">
+      <c r="D215">
         <v>-1.014467241351189</v>
       </c>
-      <c r="E215" t="inlineStr"/>
-      <c r="F215" t="inlineStr"/>
-      <c r="G215" t="inlineStr"/>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
+    </row>
+    <row r="216" spans="1:4">
+      <c r="A216" s="1">
         <v>214</v>
       </c>
-      <c r="B216" t="n">
+      <c r="B216">
         <v>-11.83717261711664</v>
       </c>
-      <c r="C216" t="n">
+      <c r="C216">
         <v>6.706442822097479</v>
       </c>
-      <c r="D216" t="n">
+      <c r="D216">
         <v>-0.6291520285497602</v>
       </c>
-      <c r="E216" t="inlineStr"/>
-      <c r="F216" t="inlineStr"/>
-      <c r="G216" t="inlineStr"/>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
+    </row>
+    <row r="217" spans="1:4">
+      <c r="A217" s="1">
         <v>215</v>
       </c>
-      <c r="B217" t="n">
+      <c r="B217">
         <v>-11.24132403665233</v>
       </c>
-      <c r="C217" t="n">
+      <c r="C217">
         <v>6.914824038372358</v>
       </c>
-      <c r="D217" t="n">
+      <c r="D217">
         <v>-0.1935563164409968</v>
       </c>
-      <c r="E217" t="inlineStr"/>
-      <c r="F217" t="inlineStr"/>
-      <c r="G217" t="inlineStr"/>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
+    </row>
+    <row r="218" spans="1:4">
+      <c r="A218" s="1">
         <v>216</v>
       </c>
-      <c r="B218" t="n">
+      <c r="B218">
         <v>-10.59422497351224</v>
       </c>
-      <c r="C218" t="n">
+      <c r="C218">
         <v>7.141128663823325</v>
       </c>
-      <c r="D218" t="n">
+      <c r="D218">
         <v>0.2795061132685302</v>
       </c>
-      <c r="E218" t="inlineStr"/>
-      <c r="F218" t="inlineStr"/>
-      <c r="G218" t="inlineStr"/>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
+    </row>
+    <row r="219" spans="1:4">
+      <c r="A219" s="1">
         <v>217</v>
       </c>
-      <c r="B219" t="n">
+      <c r="B219">
         <v>-9.926821098508494</v>
       </c>
-      <c r="C219" t="n">
+      <c r="C219">
         <v>7.374534323884604</v>
       </c>
-      <c r="D219" t="n">
+      <c r="D219">
         <v>0.7674123963880852</v>
       </c>
-      <c r="E219" t="inlineStr"/>
-      <c r="F219" t="inlineStr"/>
-      <c r="G219" t="inlineStr"/>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
+    </row>
+    <row r="220" spans="1:4">
+      <c r="A220" s="1">
         <v>218</v>
       </c>
-      <c r="B220" t="n">
+      <c r="B220">
         <v>-9.269421324593631</v>
       </c>
-      <c r="C220" t="n">
+      <c r="C220">
         <v>7.604441332071922</v>
       </c>
-      <c r="D220" t="n">
+      <c r="D220">
         <v>1.248005171209232</v>
       </c>
-      <c r="E220" t="inlineStr"/>
-      <c r="F220" t="inlineStr"/>
-      <c r="G220" t="inlineStr"/>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
+    </row>
+    <row r="221" spans="1:4">
+      <c r="A221" s="1">
         <v>219</v>
       </c>
-      <c r="B221" t="n">
+      <c r="B221">
         <v>-8.648105214467948</v>
       </c>
-      <c r="C221" t="n">
+      <c r="C221">
         <v>7.821729097729226</v>
       </c>
-      <c r="D221" t="n">
+      <c r="D221">
         <v>1.702218946836501</v>
       </c>
-      <c r="E221" t="inlineStr"/>
-      <c r="F221" t="inlineStr"/>
-      <c r="G221" t="inlineStr"/>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
+    </row>
+    <row r="222" spans="1:4">
+      <c r="A222" s="1">
         <v>220</v>
       </c>
-      <c r="B222" t="n">
+      <c r="B222">
         <v>-8.092575070793131</v>
       </c>
-      <c r="C222" t="n">
+      <c r="C222">
         <v>8.016010079192856</v>
       </c>
-      <c r="D222" t="n">
+      <c r="D222">
         <v>2.108339824632918</v>
       </c>
-      <c r="E222" t="inlineStr"/>
-      <c r="F222" t="inlineStr"/>
-      <c r="G222" t="inlineStr"/>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
+    </row>
+    <row r="223" spans="1:4">
+      <c r="A223" s="1">
         <v>221</v>
       </c>
-      <c r="B223" t="n">
+      <c r="B223">
         <v>-7.625923053852591</v>
       </c>
-      <c r="C223" t="n">
+      <c r="C223">
         <v>8.179208445447955</v>
       </c>
-      <c r="D223" t="n">
+      <c r="D223">
         <v>2.449486257284998</v>
       </c>
-      <c r="E223" t="inlineStr"/>
-      <c r="F223" t="inlineStr"/>
-      <c r="G223" t="inlineStr"/>
-    </row>
-    <row r="224">
-      <c r="A224" s="1" t="n">
+    </row>
+    <row r="224" spans="1:4">
+      <c r="A224" s="1">
         <v>222</v>
       </c>
-      <c r="B224" t="n">
+      <c r="B224">
         <v>-7.261866045074778</v>
       </c>
-      <c r="C224" t="n">
+      <c r="C224">
         <v>8.306527104533119</v>
       </c>
-      <c r="D224" t="n">
+      <c r="D224">
         <v>2.71563050464258</v>
       </c>
-      <c r="E224" t="inlineStr"/>
-      <c r="F224" t="inlineStr"/>
-      <c r="G224" t="inlineStr"/>
-    </row>
-    <row r="225">
-      <c r="A225" s="1" t="n">
+    </row>
+    <row r="225" spans="1:4">
+      <c r="A225" s="1">
         <v>223</v>
       </c>
-      <c r="B225" t="n">
+      <c r="B225">
         <v>-7.012158119946045</v>
       </c>
-      <c r="C225" t="n">
+      <c r="C225">
         <v>8.393855400442215</v>
       </c>
-      <c r="D225" t="n">
+      <c r="D225">
         <v>2.898179737840203</v>
       </c>
-      <c r="E225" t="inlineStr"/>
-      <c r="F225" t="inlineStr"/>
-      <c r="G225" t="inlineStr"/>
-    </row>
-    <row r="226">
-      <c r="A226" s="1" t="n">
+    </row>
+    <row r="226" spans="1:4">
+      <c r="A226" s="1">
         <v>224</v>
       </c>
-      <c r="B226" t="n">
+      <c r="B226">
         <v>-6.880599583461058</v>
       </c>
-      <c r="C226" t="n">
+      <c r="C226">
         <v>8.439864283811078</v>
       </c>
-      <c r="D226" t="n">
+      <c r="D226">
         <v>2.99435574003779</v>
       </c>
-      <c r="E226" t="inlineStr"/>
-      <c r="F226" t="inlineStr"/>
-      <c r="G226" t="inlineStr"/>
-    </row>
-    <row r="227">
-      <c r="A227" s="1" t="n">
+    </row>
+    <row r="227" spans="1:4">
+      <c r="A227" s="1">
         <v>225</v>
       </c>
-      <c r="B227" t="n">
+      <c r="B227">
         <v>-6.862611967437133</v>
       </c>
-      <c r="C227" t="n">
+      <c r="C227">
         <v>8.446154944606191</v>
       </c>
-      <c r="D227" t="n">
+      <c r="D227">
         <v>3.007505605067216</v>
       </c>
-      <c r="E227" t="inlineStr"/>
-      <c r="F227" t="inlineStr"/>
-      <c r="G227" t="inlineStr"/>
-    </row>
-    <row r="228">
-      <c r="A228" s="1" t="n">
+    </row>
+    <row r="228" spans="1:4">
+      <c r="A228" s="1">
         <v>226</v>
       </c>
-      <c r="B228" t="n">
+      <c r="B228">
         <v>-6.950019239206617</v>
       </c>
-      <c r="C228" t="n">
+      <c r="C228">
         <v>8.415586719389642</v>
       </c>
-      <c r="D228" t="n">
+      <c r="D228">
         <v>2.943606429944161</v>
       </c>
-      <c r="E228" t="inlineStr"/>
-      <c r="F228" t="inlineStr"/>
-      <c r="G228" t="inlineStr"/>
-    </row>
-    <row r="229">
-      <c r="A229" s="1" t="n">
+    </row>
+    <row r="229" spans="1:4">
+      <c r="A229" s="1">
         <v>227</v>
       </c>
-      <c r="B229" t="n">
+      <c r="B229">
         <v>-7.129593450519558</v>
       </c>
-      <c r="C229" t="n">
+      <c r="C229">
         <v>8.352785709549469</v>
       </c>
-      <c r="D229" t="n">
+      <c r="D229">
         <v>2.812328519720264</v>
       </c>
-      <c r="E229" t="inlineStr"/>
-      <c r="F229" t="inlineStr"/>
-      <c r="G229" t="inlineStr"/>
-    </row>
-    <row r="230">
-      <c r="A230" s="1" t="n">
+    </row>
+    <row r="230" spans="1:4">
+      <c r="A230" s="1">
         <v>228</v>
       </c>
-      <c r="B230" t="n">
+      <c r="B230">
         <v>-7.381573483930929</v>
       </c>
-      <c r="C230" t="n">
+      <c r="C230">
         <v>8.26466280792515</v>
       </c>
-      <c r="D230" t="n">
+      <c r="D230">
         <v>2.628118259446614</v>
       </c>
-      <c r="E230" t="inlineStr"/>
-      <c r="F230" t="inlineStr"/>
-      <c r="G230" t="inlineStr"/>
-    </row>
-    <row r="231">
-      <c r="A231" s="1" t="n">
+    </row>
+    <row r="231" spans="1:4">
+      <c r="A231" s="1">
         <v>229</v>
       </c>
-      <c r="B231" t="n">
+      <c r="B231">
         <v>-7.682066622183036</v>
       </c>
-      <c r="C231" t="n">
+      <c r="C231">
         <v>8.159573817728285</v>
       </c>
-      <c r="D231" t="n">
+      <c r="D231">
         <v>2.408442444428769</v>
       </c>
-      <c r="E231" t="inlineStr"/>
-      <c r="F231" t="inlineStr"/>
-      <c r="G231" t="inlineStr"/>
-    </row>
-    <row r="232">
-      <c r="A232" s="1" t="n">
+    </row>
+    <row r="232" spans="1:4">
+      <c r="A232" s="1">
         <v>230</v>
       </c>
-      <c r="B232" t="n">
+      <c r="B232">
         <v>-8.005807142690514</v>
       </c>
-      <c r="C232" t="n">
+      <c r="C232">
         <v>8.046354712014814</v>
       </c>
-      <c r="D232" t="n">
+      <c r="D232">
         <v>2.171771606916614</v>
       </c>
-      <c r="E232" t="inlineStr"/>
-      <c r="F232" t="inlineStr"/>
-      <c r="G232" t="inlineStr"/>
-    </row>
-    <row r="233">
-      <c r="A233" s="1" t="n">
+    </row>
+    <row r="233" spans="1:4">
+      <c r="A233" s="1">
         <v>231</v>
       </c>
-      <c r="B233" t="n">
+      <c r="B233">
         <v>-8.324721261684632</v>
       </c>
-      <c r="C233" t="n">
+      <c r="C233">
         <v>7.934823503949435</v>
       </c>
-      <c r="D233" t="n">
+      <c r="D233">
         <v>1.93862911515045</v>
       </c>
-      <c r="E233" t="inlineStr"/>
-      <c r="F233" t="inlineStr"/>
-      <c r="G233" t="inlineStr"/>
-    </row>
-    <row r="234">
-      <c r="A234" s="1" t="n">
+    </row>
+    <row r="234" spans="1:4">
+      <c r="A234" s="1">
         <v>232</v>
       </c>
-      <c r="B234" t="n">
+      <c r="B234">
         <v>-8.60946913896877</v>
       </c>
-      <c r="C234" t="n">
+      <c r="C234">
         <v>7.835240974183363</v>
       </c>
-      <c r="D234" t="n">
+      <c r="D234">
         <v>1.730463889212697</v>
       </c>
-      <c r="E234" t="inlineStr"/>
-      <c r="F234" t="inlineStr"/>
-      <c r="G234" t="inlineStr"/>
-    </row>
-    <row r="235">
-      <c r="A235" s="1" t="n">
+    </row>
+    <row r="235" spans="1:4">
+      <c r="A235" s="1">
         <v>233</v>
       </c>
-      <c r="B235" t="n">
+      <c r="B235">
         <v>-8.836288143621625</v>
       </c>
-      <c r="C235" t="n">
+      <c r="C235">
         <v>7.755917431905242</v>
       </c>
-      <c r="D235" t="n">
+      <c r="D235">
         <v>1.564647624660097</v>
       </c>
-      <c r="E235" t="inlineStr"/>
-      <c r="F235" t="inlineStr"/>
-      <c r="G235" t="inlineStr"/>
-    </row>
-    <row r="236">
-      <c r="A236" s="1" t="n">
+    </row>
+    <row r="236" spans="1:4">
+      <c r="A236" s="1">
         <v>234</v>
       </c>
-      <c r="B236" t="n">
+      <c r="B236">
         <v>-8.982659175350102</v>
       </c>
-      <c r="C236" t="n">
+      <c r="C236">
         <v>7.704728296579583</v>
       </c>
-      <c r="D236" t="n">
+      <c r="D236">
         <v>1.457642932716085</v>
       </c>
-      <c r="E236" t="inlineStr"/>
-      <c r="F236" t="inlineStr"/>
-      <c r="G236" t="inlineStr"/>
-    </row>
-    <row r="237">
-      <c r="A237" s="1" t="n">
+    </row>
+    <row r="237" spans="1:4">
+      <c r="A237" s="1">
         <v>235</v>
       </c>
-      <c r="B237" t="n">
+      <c r="B237">
         <v>-9.030066337314894</v>
       </c>
-      <c r="C237" t="n">
+      <c r="C237">
         <v>7.688148980299824</v>
       </c>
-      <c r="D237" t="n">
+      <c r="D237">
         <v>1.42298587863866</v>
       </c>
-      <c r="E237" t="inlineStr"/>
-      <c r="F237" t="inlineStr"/>
-      <c r="G237" t="inlineStr"/>
-    </row>
-    <row r="238">
-      <c r="A238" s="1" t="n">
+    </row>
+    <row r="238" spans="1:4">
+      <c r="A238" s="1">
         <v>236</v>
       </c>
-      <c r="B238" t="n">
+      <c r="B238">
         <v>-8.971578642701699</v>
       </c>
-      <c r="C238" t="n">
+      <c r="C238">
         <v>7.708603399996711</v>
       </c>
-      <c r="D238" t="n">
+      <c r="D238">
         <v>1.465743367403308</v>
       </c>
-      <c r="E238" t="inlineStr"/>
-      <c r="F238" t="inlineStr"/>
-      <c r="G238" t="inlineStr"/>
-    </row>
-    <row r="239">
-      <c r="A239" s="1" t="n">
+    </row>
+    <row r="239" spans="1:4">
+      <c r="A239" s="1">
         <v>237</v>
       </c>
-      <c r="B239" t="n">
+      <c r="B239">
         <v>-8.802607740811844</v>
       </c>
-      <c r="C239" t="n">
+      <c r="C239">
         <v>7.767696201767647</v>
       </c>
-      <c r="D239" t="n">
+      <c r="D239">
         <v>1.589269717465293</v>
       </c>
-      <c r="E239" t="inlineStr"/>
-      <c r="F239" t="inlineStr"/>
-      <c r="G239" t="inlineStr"/>
-    </row>
-    <row r="240">
-      <c r="A240" s="1" t="n">
+    </row>
+    <row r="240" spans="1:4">
+      <c r="A240" s="1">
         <v>238</v>
       </c>
-      <c r="B240" t="n">
+      <c r="B240">
         <v>-8.525586127528797</v>
       </c>
-      <c r="C240" t="n">
+      <c r="C240">
         <v>7.864576688862821</v>
       </c>
-      <c r="D240" t="n">
+      <c r="D240">
         <v>1.791786650229513</v>
       </c>
-      <c r="E240" t="inlineStr"/>
-      <c r="F240" t="inlineStr"/>
-      <c r="G240" t="inlineStr"/>
-    </row>
-    <row r="241">
-      <c r="A241" s="1" t="n">
+    </row>
+    <row r="241" spans="1:4">
+      <c r="A241" s="1">
         <v>239</v>
       </c>
-      <c r="B241" t="n">
+      <c r="B241">
         <v>-8.155916020481257</v>
       </c>
-      <c r="C241" t="n">
+      <c r="C241">
         <v>7.99385837057297</v>
       </c>
-      <c r="D241" t="n">
+      <c r="D241">
         <v>2.062034358798722</v>
       </c>
-      <c r="E241" t="inlineStr"/>
-      <c r="F241" t="inlineStr"/>
-      <c r="G241" t="inlineStr"/>
-    </row>
-    <row r="242">
-      <c r="A242" s="1" t="n">
+    </row>
+    <row r="242" spans="1:4">
+      <c r="A242" s="1">
         <v>240</v>
       </c>
-      <c r="B242" t="n">
+      <c r="B242">
         <v>-7.707358614352875</v>
       </c>
-      <c r="C242" t="n">
+      <c r="C242">
         <v>8.15072865762694</v>
       </c>
-      <c r="D242" t="n">
+      <c r="D242">
         <v>2.389952707772376</v>
       </c>
-      <c r="E242" t="inlineStr"/>
-      <c r="F242" t="inlineStr"/>
-      <c r="G242" t="inlineStr"/>
-    </row>
-    <row r="243">
-      <c r="A243" s="1" t="n">
+    </row>
+    <row r="243" spans="1:4">
+      <c r="A243" s="1">
         <v>241</v>
       </c>
-      <c r="B243" t="n">
+      <c r="B243">
         <v>-7.198656242331577</v>
       </c>
-      <c r="C243" t="n">
+      <c r="C243">
         <v>8.328632948212162</v>
       </c>
-      <c r="D243" t="n">
+      <c r="D243">
         <v>2.761840095369008</v>
       </c>
-      <c r="E243" t="inlineStr"/>
-      <c r="F243" t="inlineStr"/>
-      <c r="G243" t="inlineStr"/>
-    </row>
-    <row r="244">
-      <c r="A244" s="1" t="n">
+    </row>
+    <row r="244" spans="1:4">
+      <c r="A244" s="1">
         <v>242</v>
       </c>
-      <c r="B244" t="n">
+      <c r="B244">
         <v>-6.658495452842184</v>
       </c>
-      <c r="C244" t="n">
+      <c r="C244">
         <v>8.517538932027863</v>
       </c>
-      <c r="D244" t="n">
+      <c r="D244">
         <v>3.156725191121883</v>
       </c>
-      <c r="E244" t="inlineStr"/>
-      <c r="F244" t="inlineStr"/>
-      <c r="G244" t="inlineStr"/>
-    </row>
-    <row r="245">
-      <c r="A245" s="1" t="n">
+    </row>
+    <row r="245" spans="1:4">
+      <c r="A245" s="1">
         <v>243</v>
       </c>
-      <c r="B245" t="n">
+      <c r="B245">
         <v>-6.108177425839617</v>
       </c>
-      <c r="C245" t="n">
+      <c r="C245">
         <v>8.709997122857866</v>
       </c>
-      <c r="D245" t="n">
+      <c r="D245">
         <v>3.559035745712237</v>
       </c>
-      <c r="E245" t="inlineStr"/>
-      <c r="F245" t="inlineStr"/>
-      <c r="G245" t="inlineStr"/>
-    </row>
-    <row r="246">
-      <c r="A246" s="1" t="n">
+    </row>
+    <row r="246" spans="1:4">
+      <c r="A246" s="1">
         <v>244</v>
       </c>
-      <c r="B246" t="n">
+      <c r="B246">
         <v>-5.569863213268359</v>
       </c>
-      <c r="C246" t="n">
+      <c r="C246">
         <v>8.898257318537516</v>
       </c>
-      <c r="D246" t="n">
+      <c r="D246">
         <v>3.952570899526857</v>
       </c>
-      <c r="E246" t="inlineStr"/>
-      <c r="F246" t="inlineStr"/>
-      <c r="G246" t="inlineStr"/>
-    </row>
-    <row r="247">
-      <c r="A247" s="1" t="n">
+    </row>
+    <row r="247" spans="1:4">
+      <c r="A247" s="1">
         <v>245</v>
       </c>
-      <c r="B247" t="n">
+      <c r="B247">
         <v>-5.070467381696977</v>
       </c>
-      <c r="C247" t="n">
+      <c r="C247">
         <v>9.072906909385509</v>
       </c>
-      <c r="D247" t="n">
+      <c r="D247">
         <v>4.317654731241236</v>
       </c>
-      <c r="E247" t="inlineStr"/>
-      <c r="F247" t="inlineStr"/>
-      <c r="G247" t="inlineStr"/>
-    </row>
-    <row r="248">
-      <c r="A248" s="1" t="n">
+    </row>
+    <row r="248" spans="1:4">
+      <c r="A248" s="1">
         <v>246</v>
       </c>
-      <c r="B248" t="n">
+      <c r="B248">
         <v>-4.625879738576186</v>
       </c>
-      <c r="C248" t="n">
+      <c r="C248">
         <v>9.228388883920214</v>
       </c>
-      <c r="D248" t="n">
+      <c r="D248">
         <v>4.642670980921732</v>
       </c>
-      <c r="E248" t="inlineStr"/>
-      <c r="F248" t="inlineStr"/>
-      <c r="G248" t="inlineStr"/>
-    </row>
-    <row r="249">
-      <c r="A249" s="1" t="n">
+    </row>
+    <row r="249" spans="1:4">
+      <c r="A249" s="1">
         <v>247</v>
       </c>
-      <c r="B249" t="n">
+      <c r="B249">
         <v>-4.249768063451609</v>
       </c>
-      <c r="C249" t="n">
+      <c r="C249">
         <v>9.359923322177277</v>
       </c>
-      <c r="D249" t="n">
+      <c r="D249">
         <v>4.917627804399677</v>
       </c>
-      <c r="E249" t="inlineStr"/>
-      <c r="F249" t="inlineStr"/>
-      <c r="G249" t="inlineStr"/>
-    </row>
-    <row r="250">
-      <c r="A250" s="1" t="n">
+    </row>
+    <row r="250" spans="1:4">
+      <c r="A250" s="1">
         <v>248</v>
       </c>
-      <c r="B250" t="n">
+      <c r="B250">
         <v>-3.956350863835463</v>
       </c>
-      <c r="C250" t="n">
+      <c r="C250">
         <v>9.462537702636716</v>
       </c>
-      <c r="D250" t="n">
+      <c r="D250">
         <v>5.132130747265058</v>
       </c>
-      <c r="E250" t="inlineStr"/>
-      <c r="F250" t="inlineStr"/>
-      <c r="G250" t="inlineStr"/>
-    </row>
-    <row r="251">
-      <c r="A251" s="1" t="n">
+    </row>
+    <row r="251" spans="1:4">
+      <c r="A251" s="1">
         <v>249</v>
       </c>
-      <c r="B251" t="n">
+      <c r="B251">
         <v>-3.748436800505244</v>
       </c>
-      <c r="C251" t="n">
+      <c r="C251">
         <v>9.535249775498654</v>
       </c>
-      <c r="D251" t="n">
+      <c r="D251">
         <v>5.284126535193561</v>
       </c>
-      <c r="E251" t="inlineStr"/>
-      <c r="F251" t="inlineStr"/>
-      <c r="G251" t="inlineStr"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="1" t="n">
+    </row>
+    <row r="252" spans="1:4">
+      <c r="A252" s="1">
         <v>250</v>
       </c>
-      <c r="B252" t="n">
+      <c r="B252">
         <v>-3.624587392386371</v>
       </c>
-      <c r="C252" t="n">
+      <c r="C252">
         <v>9.5785626089011</v>
       </c>
-      <c r="D252" t="n">
+      <c r="D252">
         <v>5.374666771241032</v>
       </c>
-      <c r="E252" t="inlineStr"/>
-      <c r="F252" t="inlineStr"/>
-      <c r="G252" t="inlineStr"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="1" t="n">
+    </row>
+    <row r="253" spans="1:4">
+      <c r="A253" s="1">
         <v>251</v>
       </c>
-      <c r="B253" t="n">
+      <c r="B253">
         <v>-3.582354734072518</v>
       </c>
-      <c r="C253" t="n">
+      <c r="C253">
         <v>9.593332288639372</v>
       </c>
-      <c r="D253" t="n">
+      <c r="D253">
         <v>5.405540999149965</v>
       </c>
-      <c r="E253" t="inlineStr"/>
-      <c r="F253" t="inlineStr"/>
-      <c r="G253" t="inlineStr"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="1" t="n">
+    </row>
+    <row r="254" spans="1:4">
+      <c r="A254" s="1">
         <v>252</v>
       </c>
-      <c r="B254" t="n">
+      <c r="B254">
         <v>-3.612403250639516</v>
       </c>
-      <c r="C254" t="n">
+      <c r="C254">
         <v>9.582823668438234</v>
       </c>
-      <c r="D254" t="n">
+      <c r="D254">
         <v>5.383574000484609</v>
       </c>
-      <c r="E254" t="inlineStr"/>
-      <c r="F254" t="inlineStr"/>
-      <c r="G254" t="inlineStr"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="1" t="n">
+    </row>
+    <row r="255" spans="1:4">
+      <c r="A255" s="1">
         <v>253</v>
       </c>
-      <c r="B255" t="n">
+      <c r="B255">
         <v>-3.70327850085561</v>
       </c>
-      <c r="C255" t="n">
+      <c r="C255">
         <v>9.551042615683929</v>
       </c>
-      <c r="D255" t="n">
+      <c r="D255">
         <v>5.31713955618318</v>
       </c>
-      <c r="E255" t="inlineStr"/>
-      <c r="F255" t="inlineStr"/>
-      <c r="G255" t="inlineStr"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="1" t="n">
+    </row>
+    <row r="256" spans="1:4">
+      <c r="A256" s="1">
         <v>254</v>
       </c>
-      <c r="B256" t="n">
+      <c r="B256">
         <v>-3.843459729693252</v>
       </c>
-      <c r="C256" t="n">
+      <c r="C256">
         <v>9.502018189140307</v>
       </c>
-      <c r="D256" t="n">
+      <c r="D256">
         <v>5.214659925951904</v>
       </c>
-      <c r="E256" t="inlineStr"/>
-      <c r="F256" t="inlineStr"/>
-      <c r="G256" t="inlineStr"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="1" t="n">
+    </row>
+    <row r="257" spans="1:4">
+      <c r="A257" s="1">
         <v>255</v>
       </c>
-      <c r="B257" t="n">
+      <c r="B257">
         <v>-4.02140485180079</v>
       </c>
-      <c r="C257" t="n">
+      <c r="C257">
         <v>9.439786907249768</v>
       </c>
-      <c r="D257" t="n">
+      <c r="D257">
         <v>5.084572963052179</v>
       </c>
-      <c r="E257" t="inlineStr"/>
-      <c r="F257" t="inlineStr"/>
-      <c r="G257" t="inlineStr"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="1" t="n">
+    </row>
+    <row r="258" spans="1:4">
+      <c r="A258" s="1">
         <v>256</v>
       </c>
-      <c r="B258" t="n">
+      <c r="B258">
         <v>-4.226827711170262</v>
       </c>
-      <c r="C258" t="n">
+      <c r="C258">
         <v>9.367946062629954</v>
       </c>
-      <c r="D258" t="n">
+      <c r="D258">
         <v>4.934398372318515</v>
       </c>
-      <c r="E258" t="inlineStr"/>
-      <c r="F258" t="inlineStr"/>
-      <c r="G258" t="inlineStr"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="1" t="n">
+    </row>
+    <row r="259" spans="1:4">
+      <c r="A259" s="1">
         <v>257</v>
       </c>
-      <c r="B259" t="n">
+      <c r="B259">
         <v>-4.449140573826358</v>
       </c>
-      <c r="C259" t="n">
+      <c r="C259">
         <v>9.290198416277036</v>
       </c>
-      <c r="D259" t="n">
+      <c r="D259">
         <v>4.771876327465845</v>
       </c>
-      <c r="E259" t="inlineStr"/>
-      <c r="F259" t="inlineStr"/>
-      <c r="G259" t="inlineStr"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="1" t="n">
+    </row>
+    <row r="260" spans="1:4">
+      <c r="A260" s="1">
         <v>258</v>
       </c>
-      <c r="B260" t="n">
+      <c r="B260">
         <v>-4.682529682846426</v>
       </c>
-      <c r="C260" t="n">
+      <c r="C260">
         <v>9.20857716551394</v>
       </c>
-      <c r="D260" t="n">
+      <c r="D260">
         <v>4.601256981418556</v>
       </c>
-      <c r="E260" t="inlineStr"/>
-      <c r="F260" t="inlineStr"/>
-      <c r="G260" t="inlineStr"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="1" t="n">
+    </row>
+    <row r="261" spans="1:4">
+      <c r="A261" s="1">
         <v>259</v>
       </c>
-      <c r="B261" t="n">
+      <c r="B261">
         <v>-4.92341240528193</v>
       </c>
-      <c r="C261" t="n">
+      <c r="C261">
         <v>9.124335235053017</v>
       </c>
-      <c r="D261" t="n">
+      <c r="D261">
         <v>4.425159421645524</v>
       </c>
-      <c r="E261" t="inlineStr"/>
-      <c r="F261" t="inlineStr"/>
-      <c r="G261" t="inlineStr"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="1" t="n">
+    </row>
+    <row r="262" spans="1:4">
+      <c r="A262" s="1">
         <v>260</v>
       </c>
-      <c r="B262" t="n">
+      <c r="B262">
         <v>-5.164936337633473</v>
       </c>
-      <c r="C262" t="n">
+      <c r="C262">
         <v>9.039869059529551</v>
       </c>
-      <c r="D262" t="n">
+      <c r="D262">
         <v>4.248593104709772</v>
       </c>
-      <c r="E262" t="inlineStr"/>
-      <c r="F262" t="inlineStr"/>
-      <c r="G262" t="inlineStr"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="1" t="n">
+    </row>
+    <row r="263" spans="1:4">
+      <c r="A263" s="1">
         <v>261</v>
       </c>
-      <c r="B263" t="n">
+      <c r="B263">
         <v>-5.405913056083469</v>
       </c>
-      <c r="C263" t="n">
+      <c r="C263">
         <v>8.955594256616688</v>
       </c>
-      <c r="D263" t="n">
+      <c r="D263">
         <v>4.072426829054533</v>
       </c>
-      <c r="E263" t="inlineStr"/>
-      <c r="F263" t="inlineStr"/>
-      <c r="G263" t="inlineStr"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="1" t="n">
+    </row>
+    <row r="264" spans="1:4">
+      <c r="A264" s="1">
         <v>262</v>
       </c>
-      <c r="B264" t="n">
+      <c r="B264">
         <v>-5.645737295796796</v>
       </c>
-      <c r="C264" t="n">
+      <c r="C264">
         <v>8.871722500599883</v>
       </c>
-      <c r="D264" t="n">
+      <c r="D264">
         <v>3.897103074154479</v>
       </c>
-      <c r="E264" t="inlineStr"/>
-      <c r="F264" t="inlineStr"/>
-      <c r="G264" t="inlineStr"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="1" t="n">
+    </row>
+    <row r="265" spans="1:4">
+      <c r="A265" s="1">
         <v>263</v>
       </c>
-      <c r="B265" t="n">
+      <c r="B265">
         <v>-5.876384547703728</v>
       </c>
-      <c r="C265" t="n">
+      <c r="C265">
         <v>8.791060136941365</v>
       </c>
-      <c r="D265" t="n">
+      <c r="D265">
         <v>3.728488165544577</v>
       </c>
-      <c r="E265" t="inlineStr"/>
-      <c r="F265" t="inlineStr"/>
-      <c r="G265" t="inlineStr"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="1" t="n">
+    </row>
+    <row r="266" spans="1:4">
+      <c r="A266" s="1">
         <v>264</v>
       </c>
-      <c r="B266" t="n">
+      <c r="B266">
         <v>-6.094770029783766</v>
       </c>
-      <c r="C266" t="n">
+      <c r="C266">
         <v>8.714685981049019</v>
       </c>
-      <c r="D266" t="n">
+      <c r="D266">
         <v>3.568837236265294</v>
       </c>
-      <c r="E266" t="inlineStr"/>
-      <c r="F266" t="inlineStr"/>
-      <c r="G266" t="inlineStr"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="1" t="n">
+    </row>
+    <row r="267" spans="1:4">
+      <c r="A267" s="1">
         <v>265</v>
       </c>
-      <c r="B267" t="n">
+      <c r="B267">
         <v>-6.296900078862867</v>
       </c>
-      <c r="C267" t="n">
+      <c r="C267">
         <v>8.643996703850469</v>
       </c>
-      <c r="D267" t="n">
+      <c r="D267">
         <v>3.421069857850831</v>
       </c>
-      <c r="E267" t="inlineStr"/>
-      <c r="F267" t="inlineStr"/>
-      <c r="G267" t="inlineStr"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="1" t="n">
+    </row>
+    <row r="268" spans="1:4">
+      <c r="A268" s="1">
         <v>266</v>
       </c>
-      <c r="B268" t="n">
+      <c r="B268">
         <v>-6.471512666260042</v>
       </c>
-      <c r="C268" t="n">
+      <c r="C268">
         <v>8.582930881875408</v>
       </c>
-      <c r="D268" t="n">
+      <c r="D268">
         <v>3.293419147848037</v>
       </c>
-      <c r="E268" t="inlineStr"/>
-      <c r="F268" t="inlineStr"/>
-      <c r="G268" t="inlineStr"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="1" t="n">
+    </row>
+    <row r="269" spans="1:4">
+      <c r="A269" s="1">
         <v>267</v>
       </c>
-      <c r="B269" t="n">
+      <c r="B269">
         <v>-6.614056256452231</v>
       </c>
-      <c r="C269" t="n">
+      <c r="C269">
         <v>8.533080286153101</v>
       </c>
-      <c r="D269" t="n">
+      <c r="D269">
         <v>3.189212510940516</v>
       </c>
-      <c r="E269" t="inlineStr"/>
-      <c r="F269" t="inlineStr"/>
-      <c r="G269" t="inlineStr"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="1" t="n">
+    </row>
+    <row r="270" spans="1:4">
+      <c r="A270" s="1">
         <v>268</v>
       </c>
-      <c r="B270" t="n">
+      <c r="B270">
         <v>-6.719851451641708</v>
       </c>
-      <c r="C270" t="n">
+      <c r="C270">
         <v>8.496081403932987</v>
       </c>
-      <c r="D270" t="n">
+      <c r="D270">
         <v>3.111870825658099</v>
       </c>
-      <c r="E270" t="inlineStr"/>
-      <c r="F270" t="inlineStr"/>
-      <c r="G270" t="inlineStr"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="1" t="n">
+    </row>
+    <row r="271" spans="1:4">
+      <c r="A271" s="1">
         <v>269</v>
       </c>
-      <c r="B271" t="n">
+      <c r="B271">
         <v>-6.780466103838715</v>
       </c>
-      <c r="C271" t="n">
+      <c r="C271">
         <v>8.474883140879228</v>
       </c>
-      <c r="D271" t="n">
+      <c r="D271">
         <v>3.067558422383755</v>
       </c>
-      <c r="E271" t="inlineStr"/>
-      <c r="F271" t="inlineStr"/>
-      <c r="G271" t="inlineStr"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="1" t="n">
+    </row>
+    <row r="272" spans="1:4">
+      <c r="A272" s="1">
         <v>270</v>
       </c>
-      <c r="B272" t="n">
+      <c r="B272">
         <v>-6.795081296419877</v>
       </c>
-      <c r="C272" t="n">
+      <c r="C272">
         <v>8.469771889957423</v>
       </c>
-      <c r="D272" t="n">
+      <c r="D272">
         <v>3.056873970949739</v>
       </c>
-      <c r="E272" t="inlineStr"/>
-      <c r="F272" t="inlineStr"/>
-      <c r="G272" t="inlineStr"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="1" t="n">
+    </row>
+    <row r="273" spans="1:4">
+      <c r="A273" s="1">
         <v>271</v>
       </c>
-      <c r="B273" t="n">
+      <c r="B273">
         <v>-6.76274730567409</v>
       </c>
-      <c r="C273" t="n">
+      <c r="C273">
         <v>8.481079790218555</v>
       </c>
-      <c r="D273" t="n">
+      <c r="D273">
         <v>3.080511767843128</v>
       </c>
-      <c r="E273" t="inlineStr"/>
-      <c r="F273" t="inlineStr"/>
-      <c r="G273" t="inlineStr"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="1" t="n">
+    </row>
+    <row r="274" spans="1:4">
+      <c r="A274" s="1">
         <v>272</v>
       </c>
-      <c r="B274" t="n">
+      <c r="B274">
         <v>-6.680580765176281</v>
       </c>
-      <c r="C274" t="n">
+      <c r="C274">
         <v>8.509815217653308</v>
       </c>
-      <c r="D274" t="n">
+      <c r="D274">
         <v>3.140579701028043</v>
       </c>
-      <c r="E274" t="inlineStr"/>
-      <c r="F274" t="inlineStr"/>
-      <c r="G274" t="inlineStr"/>
-    </row>
-    <row r="275">
-      <c r="A275" s="1" t="n">
+    </row>
+    <row r="275" spans="1:4">
+      <c r="A275" s="1">
         <v>273</v>
       </c>
-      <c r="B275" t="n">
+      <c r="B275">
         <v>-6.553154096242024</v>
       </c>
-      <c r="C275" t="n">
+      <c r="C275">
         <v>8.554379097016225</v>
       </c>
-      <c r="D275" t="n">
+      <c r="D275">
         <v>3.233735097240973</v>
       </c>
-      <c r="E275" t="inlineStr"/>
-      <c r="F275" t="inlineStr"/>
-      <c r="G275" t="inlineStr"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="1" t="n">
+    </row>
+    <row r="276" spans="1:4">
+      <c r="A276" s="1">
         <v>274</v>
       </c>
-      <c r="B276" t="n">
+      <c r="B276">
         <v>-6.383130464733223</v>
       </c>
-      <c r="C276" t="n">
+      <c r="C276">
         <v>8.613840061245874</v>
       </c>
-      <c r="D276" t="n">
+      <c r="D276">
         <v>3.358031046363957</v>
       </c>
-      <c r="E276" t="inlineStr"/>
-      <c r="F276" t="inlineStr"/>
-      <c r="G276" t="inlineStr"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="1" t="n">
+    </row>
+    <row r="277" spans="1:4">
+      <c r="A277" s="1">
         <v>275</v>
       </c>
-      <c r="B277" t="n">
+      <c r="B277">
         <v>-6.173135558632736</v>
       </c>
-      <c r="C277" t="n">
+      <c r="C277">
         <v>8.687279850110773</v>
       </c>
-      <c r="D277" t="n">
+      <c r="D277">
         <v>3.511548036520709</v>
       </c>
-      <c r="E277" t="inlineStr"/>
-      <c r="F277" t="inlineStr"/>
-      <c r="G277" t="inlineStr"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="1" t="n">
+    </row>
+    <row r="278" spans="1:4">
+      <c r="A278" s="1">
         <v>276</v>
       </c>
-      <c r="B278" t="n">
+      <c r="B278">
         <v>-5.932797244893985</v>
       </c>
-      <c r="C278" t="n">
+      <c r="C278">
         <v>8.771331389002262</v>
       </c>
-      <c r="D278" t="n">
+      <c r="D278">
         <v>3.687247605761054</v>
       </c>
-      <c r="E278" t="inlineStr"/>
-      <c r="F278" t="inlineStr"/>
-      <c r="G278" t="inlineStr"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="1" t="n">
+    </row>
+    <row r="279" spans="1:4">
+      <c r="A279" s="1">
         <v>277</v>
       </c>
-      <c r="B279" t="n">
+      <c r="B279">
         <v>-5.667464233500121</v>
       </c>
-      <c r="C279" t="n">
+      <c r="C279">
         <v>8.864124117633159</v>
       </c>
-      <c r="D279" t="n">
+      <c r="D279">
         <v>3.881219574199763</v>
       </c>
-      <c r="E279" t="inlineStr"/>
-      <c r="F279" t="inlineStr"/>
-      <c r="G279" t="inlineStr"/>
-    </row>
-    <row r="280">
-      <c r="A280" s="1" t="n">
+    </row>
+    <row r="280" spans="1:4">
+      <c r="A280" s="1">
         <v>278</v>
       </c>
-      <c r="B280" t="n">
+      <c r="B280">
         <v>-5.382173229042039</v>
       </c>
-      <c r="C280" t="n">
+      <c r="C280">
         <v>8.963896590792249</v>
       </c>
-      <c r="D280" t="n">
+      <c r="D280">
         <v>4.089781853811648</v>
       </c>
-      <c r="E280" t="inlineStr"/>
-      <c r="F280" t="inlineStr"/>
-      <c r="G280" t="inlineStr"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="1" t="n">
+    </row>
+    <row r="281" spans="1:4">
+      <c r="A281" s="1">
         <v>279</v>
       </c>
-      <c r="B281" t="n">
+      <c r="B281">
         <v>-5.088140026692175</v>
       </c>
-      <c r="C281" t="n">
+      <c r="C281">
         <v>9.066726400813979</v>
       </c>
-      <c r="D281" t="n">
+      <c r="D281">
         <v>4.304735126103417</v>
       </c>
-      <c r="E281" t="inlineStr"/>
-      <c r="F281" t="inlineStr"/>
-      <c r="G281" t="inlineStr"/>
-    </row>
-    <row r="282">
-      <c r="A282" s="1" t="n">
+    </row>
+    <row r="282" spans="1:4">
+      <c r="A282" s="1">
         <v>280</v>
       </c>
-      <c r="B282" t="n">
+      <c r="B282">
         <v>-4.789264287463342</v>
       </c>
-      <c r="C282" t="n">
+      <c r="C282">
         <v>9.171249751372315</v>
       </c>
-      <c r="D282" t="n">
+      <c r="D282">
         <v>4.523228539916651</v>
       </c>
-      <c r="E282" t="inlineStr"/>
-      <c r="F282" t="inlineStr"/>
-      <c r="G282" t="inlineStr"/>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="n">
+    </row>
+    <row r="283" spans="1:4">
+      <c r="A283" s="1">
         <v>281</v>
       </c>
-      <c r="B283" t="n">
+      <c r="B283">
         <v>-4.489030962773256</v>
       </c>
-      <c r="C283" t="n">
+      <c r="C283">
         <v>9.276247879112114</v>
       </c>
-      <c r="D283" t="n">
+      <c r="D283">
         <v>4.742714417965147</v>
       </c>
-      <c r="E283" t="inlineStr"/>
-      <c r="F283" t="inlineStr"/>
-      <c r="G283" t="inlineStr"/>
-    </row>
-    <row r="284">
-      <c r="A284" s="1" t="n">
+    </row>
+    <row r="284" spans="1:4">
+      <c r="A284" s="1">
         <v>282</v>
       </c>
-      <c r="B284" t="n">
+      <c r="B284">
         <v>-4.196639328100616</v>
       </c>
-      <c r="C284" t="n">
+      <c r="C284">
         <v>9.378503597191038</v>
       </c>
-      <c r="D284" t="n">
+      <c r="D284">
         <v>4.956467620533199</v>
       </c>
-      <c r="E284" t="inlineStr"/>
-      <c r="F284" t="inlineStr"/>
-      <c r="G284" t="inlineStr"/>
-    </row>
-    <row r="285">
-      <c r="A285" s="1" t="n">
+    </row>
+    <row r="285" spans="1:4">
+      <c r="A285" s="1">
         <v>283</v>
       </c>
-      <c r="B285" t="n">
+      <c r="B285">
         <v>-3.914011833300874</v>
       </c>
-      <c r="C285" t="n">
+      <c r="C285">
         <v>9.477344583055601</v>
       </c>
-      <c r="D285" t="n">
+      <c r="D285">
         <v>5.163082738694387</v>
       </c>
-      <c r="E285" t="inlineStr"/>
-      <c r="F285" t="inlineStr"/>
-      <c r="G285" t="inlineStr"/>
-    </row>
-    <row r="286">
-      <c r="A286" s="1" t="n">
+    </row>
+    <row r="286" spans="1:4">
+      <c r="A286" s="1">
         <v>284</v>
       </c>
-      <c r="B286" t="n">
+      <c r="B286">
         <v>-3.643504989969873</v>
       </c>
-      <c r="C286" t="n">
+      <c r="C286">
         <v>9.571946713315048</v>
       </c>
-      <c r="D286" t="n">
+      <c r="D286">
         <v>5.360837042244529</v>
       </c>
-      <c r="E286" t="inlineStr"/>
-      <c r="F286" t="inlineStr"/>
-      <c r="G286" t="inlineStr"/>
-    </row>
-    <row r="287">
-      <c r="A287" s="1" t="n">
+    </row>
+    <row r="287" spans="1:4">
+      <c r="A287" s="1">
         <v>285</v>
       </c>
-      <c r="B287" t="n">
+      <c r="B287">
         <v>-3.394224045487662</v>
       </c>
-      <c r="C287" t="n">
+      <c r="C287">
         <v>9.659125684799509</v>
       </c>
-      <c r="D287" t="n">
+      <c r="D287">
         <v>5.543074130805282</v>
       </c>
-      <c r="E287" t="inlineStr"/>
-      <c r="F287" t="inlineStr"/>
-      <c r="G287" t="inlineStr"/>
-    </row>
-    <row r="288">
-      <c r="A288" s="1" t="n">
+    </row>
+    <row r="288" spans="1:4">
+      <c r="A288" s="1">
         <v>286</v>
       </c>
-      <c r="B288" t="n">
+      <c r="B288">
         <v>-3.169646233037492</v>
       </c>
-      <c r="C288" t="n">
+      <c r="C288">
         <v>9.737665433388406</v>
       </c>
-      <c r="D288" t="n">
+      <c r="D288">
         <v>5.707251969513617</v>
       </c>
-      <c r="E288" t="inlineStr"/>
-      <c r="F288" t="inlineStr"/>
-      <c r="G288" t="inlineStr"/>
-    </row>
-    <row r="289">
-      <c r="A289" s="1" t="n">
+    </row>
+    <row r="289" spans="1:4">
+      <c r="A289" s="1">
         <v>287</v>
       </c>
-      <c r="B289" t="n">
+      <c r="B289">
         <v>-2.97463014118794</v>
       </c>
-      <c r="C289" t="n">
+      <c r="C289">
         <v>9.805866804919939</v>
       </c>
-      <c r="D289" t="n">
+      <c r="D289">
         <v>5.84981868224402</v>
       </c>
-      <c r="E289" t="inlineStr"/>
-      <c r="F289" t="inlineStr"/>
-      <c r="G289" t="inlineStr"/>
-    </row>
-    <row r="290">
-      <c r="A290" s="1" t="n">
+    </row>
+    <row r="290" spans="1:4">
+      <c r="A290" s="1">
         <v>288</v>
       </c>
-      <c r="B290" t="n">
+      <c r="B290">
         <v>-2.820586649293972</v>
       </c>
-      <c r="C290" t="n">
+      <c r="C290">
         <v>9.859739166544232</v>
       </c>
-      <c r="D290" t="n">
+      <c r="D290">
         <v>5.962432334012706</v>
       </c>
-      <c r="E290" t="inlineStr"/>
-      <c r="F290" t="inlineStr"/>
-      <c r="G290" t="inlineStr"/>
-    </row>
-    <row r="291">
-      <c r="A291" s="1" t="n">
+    </row>
+    <row r="291" spans="1:4">
+      <c r="A291" s="1">
         <v>289</v>
       </c>
-      <c r="B291" t="n">
+      <c r="B291">
         <v>-2.716205778895494</v>
       </c>
-      <c r="C291" t="n">
+      <c r="C291">
         <v>9.896243428604429</v>
       </c>
-      <c r="D291" t="n">
+      <c r="D291">
         <v>6.038740075715014</v>
       </c>
-      <c r="E291" t="inlineStr"/>
-      <c r="F291" t="inlineStr"/>
-      <c r="G291" t="inlineStr"/>
-    </row>
-    <row r="292">
-      <c r="A292" s="1" t="n">
+    </row>
+    <row r="292" spans="1:4">
+      <c r="A292" s="1">
         <v>290</v>
       </c>
-      <c r="B292" t="n">
+      <c r="B292">
         <v>-2.670566189876284</v>
       </c>
-      <c r="C292" t="n">
+      <c r="C292">
         <v>9.912204586156733</v>
       </c>
-      <c r="D292" t="n">
+      <c r="D292">
         <v>6.072104943788849</v>
       </c>
-      <c r="E292" t="inlineStr"/>
-      <c r="F292" t="inlineStr"/>
-      <c r="G292" t="inlineStr"/>
-    </row>
-    <row r="293">
-      <c r="A293" s="1" t="n">
+    </row>
+    <row r="293" spans="1:4">
+      <c r="A293" s="1">
         <v>291</v>
       </c>
-      <c r="B293" t="n">
+      <c r="B293">
         <v>-2.696014705075396</v>
       </c>
-      <c r="C293" t="n">
+      <c r="C293">
         <v>9.90330468654558</v>
       </c>
-      <c r="D293" t="n">
+      <c r="D293">
         <v>6.053500780812359</v>
       </c>
-      <c r="E293" t="inlineStr"/>
-      <c r="F293" t="inlineStr"/>
-      <c r="G293" t="inlineStr"/>
-    </row>
-    <row r="294">
-      <c r="A294" s="1" t="n">
+    </row>
+    <row r="294" spans="1:4">
+      <c r="A294" s="1">
         <v>292</v>
       </c>
-      <c r="B294" t="n">
+      <c r="B294">
         <v>-2.804873392378445</v>
       </c>
-      <c r="C294" t="n">
+      <c r="C294">
         <v>9.865234434461367</v>
       </c>
-      <c r="D294" t="n">
+      <c r="D294">
         <v>5.973919526497637</v>
       </c>
-      <c r="E294" t="inlineStr"/>
-      <c r="F294" t="inlineStr"/>
-      <c r="G294" t="inlineStr"/>
-    </row>
-    <row r="295">
-      <c r="A295" s="1" t="n">
+    </row>
+    <row r="295" spans="1:4">
+      <c r="A295" s="1">
         <v>293</v>
       </c>
-      <c r="B295" t="n">
+      <c r="B295">
         <v>-3.007699709648814</v>
       </c>
-      <c r="C295" t="n">
+      <c r="C295">
         <v>9.794301657123174</v>
       </c>
-      <c r="D295" t="n">
+      <c r="D295">
         <v>5.825643140512228</v>
       </c>
-      <c r="E295" t="inlineStr"/>
-      <c r="F295" t="inlineStr"/>
-      <c r="G295" t="inlineStr"/>
-    </row>
-    <row r="296">
-      <c r="A296" s="1" t="n">
+    </row>
+    <row r="296" spans="1:4">
+      <c r="A296" s="1">
         <v>294</v>
       </c>
-      <c r="B296" t="n">
+      <c r="B296">
         <v>-3.313903054932467</v>
       </c>
-      <c r="C296" t="n">
+      <c r="C296">
         <v>9.687215683253902</v>
       </c>
-      <c r="D296" t="n">
+      <c r="D296">
         <v>5.601792872823443</v>
       </c>
-      <c r="E296" t="inlineStr"/>
-      <c r="F296" t="inlineStr"/>
-      <c r="G296" t="inlineStr"/>
-    </row>
-    <row r="297">
-      <c r="A297" s="1" t="n">
+    </row>
+    <row r="297" spans="1:4">
+      <c r="A297" s="1">
         <v>295</v>
       </c>
-      <c r="B297" t="n">
+      <c r="B297">
         <v>-3.730522920290223</v>
       </c>
-      <c r="C297" t="n">
+      <c r="C297">
         <v>9.541514649276653</v>
       </c>
-      <c r="D297" t="n">
+      <c r="D297">
         <v>5.297222495584728</v>
       </c>
-      <c r="E297" t="inlineStr"/>
-      <c r="F297" t="inlineStr"/>
-      <c r="G297" t="inlineStr"/>
-    </row>
-    <row r="298">
-      <c r="A298" s="1" t="n">
+    </row>
+    <row r="298" spans="1:4">
+      <c r="A298" s="1">
         <v>296</v>
       </c>
-      <c r="B298" t="n">
+      <c r="B298">
         <v>-4.270881715052476</v>
       </c>
-      <c r="C298" t="n">
+      <c r="C298">
         <v>9.352539418707767</v>
       </c>
-      <c r="D298" t="n">
+      <c r="D298">
         <v>4.902192647875298</v>
       </c>
-      <c r="E298" t="inlineStr"/>
-      <c r="F298" t="inlineStr"/>
-      <c r="G298" t="inlineStr"/>
-    </row>
-    <row r="299">
-      <c r="A299" s="1" t="n">
+    </row>
+    <row r="299" spans="1:4">
+      <c r="A299" s="1">
         <v>297</v>
       </c>
-      <c r="B299" t="n">
+      <c r="B299">
         <v>-4.920431141518103</v>
       </c>
-      <c r="C299" t="n">
+      <c r="C299">
         <v>9.12537784787364</v>
       </c>
-      <c r="D299" t="n">
+      <c r="D299">
         <v>4.427338877558931</v>
       </c>
-      <c r="E299" t="inlineStr"/>
-      <c r="F299" t="inlineStr"/>
-      <c r="G299" t="inlineStr"/>
-    </row>
-    <row r="300">
-      <c r="A300" s="1" t="n">
+    </row>
+    <row r="300" spans="1:4">
+      <c r="A300" s="1">
         <v>298</v>
       </c>
-      <c r="B300" t="n">
+      <c r="B300">
         <v>-5.704449826704185</v>
       </c>
-      <c r="C300" t="n">
+      <c r="C300">
         <v>8.851189450757717</v>
       </c>
-      <c r="D300" t="n">
+      <c r="D300">
         <v>3.85418121858778</v>
       </c>
-      <c r="E300" t="inlineStr"/>
-      <c r="F300" t="inlineStr"/>
-      <c r="G300" t="inlineStr"/>
-    </row>
-    <row r="301">
-      <c r="A301" s="1" t="n">
+    </row>
+    <row r="301" spans="1:4">
+      <c r="A301" s="1">
         <v>299</v>
       </c>
-      <c r="B301" t="n">
+      <c r="B301">
         <v>-6.576685773025132</v>
       </c>
-      <c r="C301" t="n">
+      <c r="C301">
         <v>8.546149557516054</v>
       </c>
-      <c r="D301" t="n">
+      <c r="D301">
         <v>3.216532240942375</v>
       </c>
-      <c r="E301" t="inlineStr"/>
-      <c r="F301" t="inlineStr"/>
-      <c r="G301" t="inlineStr"/>
-    </row>
-    <row r="302">
-      <c r="A302" s="1" t="n">
+    </row>
+    <row r="302" spans="1:4">
+      <c r="A302" s="1">
         <v>300</v>
       </c>
-      <c r="B302" t="n">
+      <c r="B302">
         <v>-7.583777565719111</v>
       </c>
-      <c r="C302" t="n">
+      <c r="C302">
         <v>8.193947639877031</v>
       </c>
-      <c r="D302" t="n">
+      <c r="D302">
         <v>2.480296759344714</v>
       </c>
-      <c r="E302" t="inlineStr"/>
-      <c r="F302" t="inlineStr"/>
-      <c r="G302" t="inlineStr"/>
-    </row>
-    <row r="303">
-      <c r="A303" s="1" t="n">
+    </row>
+    <row r="303" spans="1:4">
+      <c r="A303" s="1">
         <v>301</v>
       </c>
-      <c r="B303" t="n">
+      <c r="B303">
         <v>-8.61305106646889</v>
       </c>
-      <c r="C303" t="n">
+      <c r="C303">
         <v>7.833988296181677</v>
       </c>
-      <c r="D303" t="n">
+      <c r="D303">
         <v>1.727845317462604</v>
       </c>
-      <c r="E303" t="inlineStr"/>
-      <c r="F303" t="inlineStr"/>
-      <c r="G303" t="inlineStr"/>
-    </row>
-    <row r="304">
-      <c r="A304" s="1" t="n">
+    </row>
+    <row r="304" spans="1:4">
+      <c r="A304" s="1">
         <v>302</v>
       </c>
-      <c r="B304" t="n">
+      <c r="B304">
         <v>-9.811529978471297</v>
       </c>
-      <c r="C304" t="n">
+      <c r="C304">
         <v>7.414854137687506</v>
       </c>
-      <c r="D304" t="n">
+      <c r="D304">
         <v>0.8516960872098135</v>
       </c>
-      <c r="E304" t="inlineStr"/>
-      <c r="F304" t="inlineStr"/>
-      <c r="G304" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>